--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -117,18 +117,6 @@
     <t>DEUDA</t>
   </si>
   <si>
-    <t xml:space="preserve">ZAVALETA </t>
-  </si>
-  <si>
-    <t>PAGOS</t>
-  </si>
-  <si>
-    <t>Depositos</t>
-  </si>
-  <si>
-    <t>RESTA</t>
-  </si>
-  <si>
     <t>XXXX</t>
   </si>
   <si>
@@ -202,7 +190,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +410,30 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF00FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -743,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -956,22 +968,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="26" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,6 +1017,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1047,6 +1053,30 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1057,7 +1087,10 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FF99FF99"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFFCCFF"/>
+      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1618,32 +1651,32 @@
     <col min="3" max="3" width="9.85546875" style="71" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" style="72" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="129" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="118" customWidth="1"/>
     <col min="7" max="7" width="18" style="74" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="134"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="B2" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -1681,13 +1714,13 @@
         <v>608</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="120" t="s">
-        <v>22</v>
+      <c r="D4" s="109" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="121"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="75"/>
       <c r="H4" s="19">
         <f t="shared" ref="H4:H32" si="0">E4-G4</f>
@@ -1704,12 +1737,12 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="20">
         <v>22440</v>
       </c>
-      <c r="F5" s="122">
+      <c r="F5" s="111">
         <v>44952</v>
       </c>
       <c r="G5" s="21">
@@ -1729,12 +1762,12 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" s="20">
         <v>3668</v>
       </c>
-      <c r="F6" s="122">
+      <c r="F6" s="111">
         <v>44952</v>
       </c>
       <c r="G6" s="21">
@@ -1754,12 +1787,12 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="20">
         <v>681</v>
       </c>
-      <c r="F7" s="122">
+      <c r="F7" s="111">
         <v>44944</v>
       </c>
       <c r="G7" s="21">
@@ -1779,12 +1812,12 @@
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" s="20">
         <v>28080</v>
       </c>
-      <c r="F8" s="122">
+      <c r="F8" s="111">
         <v>44952</v>
       </c>
       <c r="G8" s="21">
@@ -1803,13 +1836,13 @@
         <v>613</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="119" t="s">
-        <v>25</v>
+      <c r="D9" s="108" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="20">
         <v>6045</v>
       </c>
-      <c r="F9" s="122">
+      <c r="F9" s="111">
         <v>44939</v>
       </c>
       <c r="G9" s="21">
@@ -1829,12 +1862,12 @@
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10" s="20">
         <v>10290</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="111">
         <v>44952</v>
       </c>
       <c r="G10" s="21">
@@ -1854,12 +1887,12 @@
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" s="20">
         <v>2897</v>
       </c>
-      <c r="F11" s="122">
+      <c r="F11" s="111">
         <v>44939</v>
       </c>
       <c r="G11" s="21">
@@ -1879,13 +1912,13 @@
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" s="20">
         <v>28065</v>
       </c>
-      <c r="F12" s="122" t="s">
-        <v>29</v>
+      <c r="F12" s="111" t="s">
+        <v>25</v>
       </c>
       <c r="G12" s="21">
         <f>5080+10800+12185</f>
@@ -1905,12 +1938,12 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" s="20">
         <v>5586</v>
       </c>
-      <c r="F13" s="122">
+      <c r="F13" s="111">
         <v>44952</v>
       </c>
       <c r="G13" s="21">
@@ -1930,12 +1963,12 @@
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" s="20">
         <v>4950</v>
       </c>
-      <c r="F14" s="122">
+      <c r="F14" s="111">
         <v>44952</v>
       </c>
       <c r="G14" s="21">
@@ -1955,13 +1988,13 @@
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E15" s="20">
         <v>250</v>
       </c>
-      <c r="F15" s="132"/>
-      <c r="G15" s="133"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122"/>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -1976,12 +2009,12 @@
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E16" s="20">
         <v>1284</v>
       </c>
-      <c r="F16" s="122">
+      <c r="F16" s="111">
         <v>44951</v>
       </c>
       <c r="G16" s="21">
@@ -2001,12 +2034,12 @@
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17" s="20">
         <v>7591</v>
       </c>
-      <c r="F17" s="122">
+      <c r="F17" s="111">
         <v>44947</v>
       </c>
       <c r="G17" s="21">
@@ -2026,12 +2059,12 @@
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E18" s="20">
         <v>13942</v>
       </c>
-      <c r="F18" s="122">
+      <c r="F18" s="111">
         <v>44952</v>
       </c>
       <c r="G18" s="21">
@@ -2051,12 +2084,12 @@
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19" s="20">
         <v>9350</v>
       </c>
-      <c r="F19" s="122">
+      <c r="F19" s="111">
         <v>44942</v>
       </c>
       <c r="G19" s="21">
@@ -2076,12 +2109,12 @@
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E20" s="20">
         <v>26352</v>
       </c>
-      <c r="F20" s="122">
+      <c r="F20" s="111">
         <v>44952</v>
       </c>
       <c r="G20" s="21">
@@ -2101,13 +2134,13 @@
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E21" s="20">
         <v>21187</v>
       </c>
-      <c r="F21" s="122" t="s">
-        <v>30</v>
+      <c r="F21" s="111" t="s">
+        <v>26</v>
       </c>
       <c r="G21" s="21">
         <f>6100+9800+4000+1287</f>
@@ -2127,15 +2160,15 @@
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E22" s="20">
         <v>1174</v>
       </c>
-      <c r="F22" s="132">
+      <c r="F22" s="121">
         <v>44958</v>
       </c>
-      <c r="G22" s="133">
+      <c r="G22" s="122">
         <v>1174</v>
       </c>
       <c r="H22" s="19">
@@ -2152,12 +2185,12 @@
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E23" s="20">
         <v>2842</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F23" s="111">
         <v>44951</v>
       </c>
       <c r="G23" s="21">
@@ -2177,13 +2210,13 @@
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E24" s="20">
         <v>9540</v>
       </c>
-      <c r="F24" s="132"/>
-      <c r="G24" s="133"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
         <v>9540</v>
@@ -2198,13 +2231,13 @@
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E25" s="20">
         <v>90643</v>
       </c>
-      <c r="F25" s="132"/>
-      <c r="G25" s="133"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
         <v>90643</v>
@@ -2219,13 +2252,13 @@
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E26" s="20">
         <v>22032</v>
       </c>
-      <c r="F26" s="132"/>
-      <c r="G26" s="133"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="122"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
         <v>22032</v>
@@ -2240,13 +2273,13 @@
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E27" s="20">
         <v>4400</v>
       </c>
-      <c r="F27" s="132"/>
-      <c r="G27" s="133"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="122"/>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
         <v>4400</v>
@@ -2260,16 +2293,16 @@
         <v>632</v>
       </c>
       <c r="C28" s="27"/>
-      <c r="D28" s="119" t="s">
-        <v>27</v>
+      <c r="D28" s="108" t="s">
+        <v>23</v>
       </c>
       <c r="E28" s="20">
         <v>15393</v>
       </c>
-      <c r="F28" s="132" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="133">
+      <c r="F28" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="122">
         <f>12000+3393</f>
         <v>15393</v>
       </c>
@@ -2284,7 +2317,7 @@
       <c r="C29" s="27"/>
       <c r="D29" s="17"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="122"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="21"/>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
@@ -2297,7 +2330,7 @@
       <c r="C30" s="27"/>
       <c r="D30" s="17"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="122"/>
+      <c r="F30" s="111"/>
       <c r="G30" s="21"/>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
@@ -2310,7 +2343,7 @@
       <c r="C31" s="27"/>
       <c r="D31" s="17"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="122"/>
+      <c r="F31" s="111"/>
       <c r="G31" s="21"/>
       <c r="H31" s="19">
         <f t="shared" si="0"/>
@@ -2325,7 +2358,7 @@
       <c r="E32" s="35">
         <v>0</v>
       </c>
-      <c r="F32" s="123"/>
+      <c r="F32" s="112"/>
       <c r="G32" s="36"/>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
@@ -2341,7 +2374,7 @@
         <f>SUM(E4:E32)</f>
         <v>338682</v>
       </c>
-      <c r="F33" s="124"/>
+      <c r="F33" s="113"/>
       <c r="G33" s="40">
         <f>SUM(G4:G32)</f>
         <v>211817</v>
@@ -2357,7 +2390,7 @@
       <c r="C34" s="38"/>
       <c r="D34" s="39"/>
       <c r="E34" s="42"/>
-      <c r="F34" s="125"/>
+      <c r="F34" s="114"/>
       <c r="G34" s="43"/>
       <c r="H34" s="44"/>
       <c r="I34" s="2"/>
@@ -2369,7 +2402,7 @@
       <c r="E35" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="125"/>
+      <c r="F35" s="114"/>
       <c r="G35" s="46" t="s">
         <v>9</v>
       </c>
@@ -2381,7 +2414,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="39"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="125"/>
+      <c r="F36" s="114"/>
       <c r="G36" s="46"/>
       <c r="H36" s="44"/>
       <c r="I36" s="2"/>
@@ -2390,12 +2423,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="140">
+      <c r="E37" s="136">
         <f>E33-G33</f>
         <v>126865</v>
       </c>
-      <c r="F37" s="141"/>
-      <c r="G37" s="142"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="138"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2403,7 +2436,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="39"/>
       <c r="E38" s="42"/>
-      <c r="F38" s="125"/>
+      <c r="F38" s="114"/>
       <c r="G38" s="43"/>
       <c r="I38" s="2"/>
     </row>
@@ -2411,11 +2444,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="143" t="s">
+      <c r="E39" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2423,7 +2456,7 @@
       <c r="C40" s="48"/>
       <c r="D40" s="49"/>
       <c r="E40" s="50"/>
-      <c r="F40" s="126"/>
+      <c r="F40" s="115"/>
       <c r="G40" s="51"/>
       <c r="I40" s="2"/>
     </row>
@@ -2444,7 +2477,7 @@
       <c r="C42" s="61"/>
       <c r="D42" s="62"/>
       <c r="E42" s="63"/>
-      <c r="F42" s="127"/>
+      <c r="F42" s="116"/>
       <c r="G42" s="64"/>
       <c r="H42" s="58"/>
       <c r="I42" s="2"/>
@@ -2455,7 +2488,7 @@
       <c r="C43" s="61"/>
       <c r="D43" s="62"/>
       <c r="E43" s="63"/>
-      <c r="F43" s="127"/>
+      <c r="F43" s="116"/>
       <c r="G43" s="64"/>
       <c r="H43" s="58"/>
       <c r="I43" s="2"/>
@@ -2466,7 +2499,7 @@
       <c r="C44" s="61"/>
       <c r="D44" s="62"/>
       <c r="E44" s="63"/>
-      <c r="F44" s="127"/>
+      <c r="F44" s="116"/>
       <c r="G44" s="64"/>
       <c r="H44" s="58"/>
       <c r="I44" s="2"/>
@@ -2477,7 +2510,7 @@
       <c r="C45" s="61"/>
       <c r="D45" s="62"/>
       <c r="E45" s="63"/>
-      <c r="F45" s="127"/>
+      <c r="F45" s="116"/>
       <c r="G45" s="64"/>
       <c r="H45" s="58"/>
       <c r="I45" s="2"/>
@@ -2488,7 +2521,7 @@
       <c r="C46" s="61"/>
       <c r="D46" s="62"/>
       <c r="E46" s="63"/>
-      <c r="F46" s="127"/>
+      <c r="F46" s="116"/>
       <c r="G46" s="64"/>
       <c r="H46" s="58"/>
       <c r="I46" s="2"/>
@@ -2499,7 +2532,7 @@
       <c r="C47" s="61"/>
       <c r="D47" s="62"/>
       <c r="E47" s="63"/>
-      <c r="F47" s="127"/>
+      <c r="F47" s="116"/>
       <c r="G47" s="64"/>
       <c r="H47" s="58"/>
       <c r="I47" s="2"/>
@@ -2510,7 +2543,7 @@
       <c r="C48" s="61"/>
       <c r="D48" s="62"/>
       <c r="E48" s="63"/>
-      <c r="F48" s="127"/>
+      <c r="F48" s="116"/>
       <c r="G48" s="64"/>
       <c r="H48" s="58"/>
       <c r="I48" s="2"/>
@@ -2521,7 +2554,7 @@
       <c r="C49" s="61"/>
       <c r="D49" s="62"/>
       <c r="E49" s="63"/>
-      <c r="F49" s="127"/>
+      <c r="F49" s="116"/>
       <c r="G49" s="64"/>
       <c r="H49" s="58"/>
       <c r="I49" s="2"/>
@@ -2532,7 +2565,7 @@
       <c r="C50" s="61"/>
       <c r="D50" s="62"/>
       <c r="E50" s="63"/>
-      <c r="F50" s="127"/>
+      <c r="F50" s="116"/>
       <c r="G50" s="64"/>
       <c r="H50" s="58"/>
       <c r="I50" s="2"/>
@@ -2543,7 +2576,7 @@
       <c r="C51" s="61"/>
       <c r="D51" s="62"/>
       <c r="E51" s="63"/>
-      <c r="F51" s="127"/>
+      <c r="F51" s="116"/>
       <c r="G51" s="64"/>
       <c r="H51" s="58"/>
     </row>
@@ -2553,7 +2586,7 @@
       <c r="C52" s="66"/>
       <c r="D52" s="67"/>
       <c r="E52" s="68"/>
-      <c r="F52" s="128"/>
+      <c r="F52" s="117"/>
       <c r="G52" s="69"/>
       <c r="H52" s="58"/>
     </row>
@@ -2577,8 +2610,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2594,19 +2627,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="Z2" s="116" t="s">
-        <v>21</v>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="Z2" s="105" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2647,7 +2680,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -2669,7 +2702,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -2692,7 +2725,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -2715,7 +2748,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -2737,7 +2770,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -2759,7 +2792,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -2781,7 +2814,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -2803,7 +2836,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -2825,7 +2858,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -2847,7 +2880,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -2869,7 +2902,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -2891,7 +2924,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -2913,7 +2946,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -2935,7 +2968,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -2957,7 +2990,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -2979,7 +3012,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -3001,7 +3034,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -3023,7 +3056,7 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -3045,7 +3078,7 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -3067,7 +3100,7 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -3089,7 +3122,7 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -3111,7 +3144,7 @@
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -3133,7 +3166,7 @@
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3155,7 +3188,7 @@
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -3176,15 +3209,15 @@
       <c r="G28" s="98">
         <v>44965</v>
       </c>
-      <c r="H28" s="117" t="s">
+      <c r="H28" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="118">
+      <c r="I28" s="107">
         <v>-2029341.58</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-351121.58000000007</v>
+        <v>-29221.080000000075</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -3206,7 +3239,7 @@
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-351121.58000000007</v>
+        <v>-29221.080000000075</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -3262,7 +3295,7 @@
         <v>1309142.5</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="82">
         <v>44990</v>
       </c>
@@ -3277,7 +3310,7 @@
         <v>1348489.5</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
         <v>44991</v>
       </c>
@@ -3292,7 +3325,7 @@
         <v>1391164</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
         <v>44992</v>
       </c>
@@ -3307,7 +3340,7 @@
         <v>1442779.5</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
         <v>44993</v>
       </c>
@@ -3322,7 +3355,7 @@
         <v>1479258</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82">
         <v>44994</v>
       </c>
@@ -3337,7 +3370,7 @@
         <v>1525777</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82">
         <v>44995</v>
       </c>
@@ -3352,7 +3385,7 @@
         <v>1625750</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="82">
         <v>44996</v>
       </c>
@@ -3362,196 +3395,227 @@
       <c r="D39" s="84">
         <v>52470</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="127">
         <f t="shared" si="0"/>
         <v>1678220</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="82"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="84"/>
+    <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="128">
+        <v>45000</v>
+      </c>
+      <c r="C40" s="129">
+        <v>45007</v>
+      </c>
+      <c r="D40" s="130">
+        <v>40900</v>
+      </c>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1678220</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="82"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="104">
-        <f t="shared" si="0"/>
-        <v>1678220</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="82"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="84"/>
+        <v>1719120</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="128">
+        <v>45001</v>
+      </c>
+      <c r="C41" s="129">
+        <v>45007</v>
+      </c>
+      <c r="D41" s="130">
+        <v>53400</v>
+      </c>
+      <c r="E41" s="20">
+        <f t="shared" si="0"/>
+        <v>1772520</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="128">
+        <v>45002</v>
+      </c>
+      <c r="C42" s="129">
+        <v>45007</v>
+      </c>
+      <c r="D42" s="130">
+        <v>85847.5</v>
+      </c>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1678220</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="82"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="84"/>
+        <v>1858367.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="128">
+        <v>45003</v>
+      </c>
+      <c r="C43" s="129">
+        <v>45007</v>
+      </c>
+      <c r="D43" s="130">
+        <v>4942</v>
+      </c>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1678220</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="82"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="84"/>
+        <v>1863309.5</v>
+      </c>
+      <c r="I43" s="126"/>
+      <c r="J43" s="125"/>
+    </row>
+    <row r="44" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="128">
+        <v>45003</v>
+      </c>
+      <c r="C44" s="129">
+        <v>45007</v>
+      </c>
+      <c r="D44" s="130">
+        <v>48817.5</v>
+      </c>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1678220</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="82"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="84"/>
+        <v>1912127</v>
+      </c>
+      <c r="I44" s="126"/>
+      <c r="J44" s="125"/>
+    </row>
+    <row r="45" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="128">
+        <v>45004</v>
+      </c>
+      <c r="C45" s="131">
+        <v>45007</v>
+      </c>
+      <c r="D45" s="130">
+        <v>45892.5</v>
+      </c>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1678220</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="82"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="84"/>
+        <v>1958019.5</v>
+      </c>
+      <c r="I45" s="126"/>
+      <c r="J45" s="125"/>
+    </row>
+    <row r="46" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="128">
+        <v>45005</v>
+      </c>
+      <c r="C46" s="131">
+        <v>45007</v>
+      </c>
+      <c r="D46" s="130">
+        <v>42101</v>
+      </c>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
       <c r="F46"/>
-    </row>
-    <row r="47" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="126"/>
+      <c r="J46" s="125"/>
+    </row>
+    <row r="47" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="82"/>
       <c r="C47" s="87"/>
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1678220</v>
+        <v>2000120.5</v>
       </c>
       <c r="F47"/>
-    </row>
-    <row r="48" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="126"/>
+      <c r="J47" s="125"/>
+    </row>
+    <row r="48" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="81"/>
       <c r="D48"/>
-      <c r="E48" s="105"/>
+      <c r="E48" s="104"/>
       <c r="F48"/>
     </row>
     <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C49" s="81"/>
       <c r="D49"/>
-      <c r="E49" s="105"/>
+      <c r="E49" s="104"/>
       <c r="F49"/>
     </row>
     <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C50" s="81"/>
       <c r="D50"/>
-      <c r="E50" s="105"/>
+      <c r="E50" s="104"/>
       <c r="F50"/>
     </row>
     <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C51" s="81"/>
       <c r="D51"/>
-      <c r="E51" s="105"/>
+      <c r="E51" s="104"/>
       <c r="F51"/>
     </row>
     <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C52" s="81"/>
       <c r="D52"/>
-      <c r="E52" s="105"/>
+      <c r="E52" s="104"/>
       <c r="F52"/>
     </row>
     <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C53" s="81"/>
       <c r="D53"/>
-      <c r="E53" s="105"/>
+      <c r="E53" s="104"/>
       <c r="F53"/>
     </row>
     <row r="54" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C54" s="81"/>
-      <c r="D54" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="146"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="145"/>
       <c r="F54"/>
     </row>
     <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C55" s="81"/>
-      <c r="D55"/>
-      <c r="E55"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="146"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
       <c r="F55"/>
     </row>
     <row r="56" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="107">
-        <v>44892</v>
-      </c>
-      <c r="C56" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="109">
-        <v>1884182.28</v>
-      </c>
-      <c r="E56"/>
+      <c r="B56" s="148"/>
+      <c r="C56" s="153"/>
+      <c r="D56" s="154"/>
+      <c r="E56" s="145"/>
       <c r="F56"/>
     </row>
     <row r="57" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="107"/>
-      <c r="C57" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="21">
-        <v>-691750</v>
-      </c>
-      <c r="E57"/>
+      <c r="B57" s="148"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="145"/>
       <c r="F57"/>
     </row>
-    <row r="58" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="107">
-        <v>44924</v>
-      </c>
-      <c r="C58" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="112">
-        <v>-184075.5</v>
-      </c>
-      <c r="E58"/>
+    <row r="58" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="148"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="145"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="2:6" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="107"/>
-      <c r="C59" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="114">
-        <f>SUM(D56:D58)</f>
-        <v>1008356.78</v>
-      </c>
-      <c r="E59"/>
+    <row r="59" spans="2:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="148"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="145"/>
       <c r="F59"/>
     </row>
     <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="115"/>
-      <c r="C60" s="81"/>
-      <c r="D60"/>
-      <c r="E60"/>
+      <c r="B60" s="152"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="115"/>
-      <c r="C61" s="81"/>
-      <c r="D61"/>
-      <c r="E61"/>
+      <c r="B61" s="152"/>
+      <c r="C61" s="146"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
       <c r="F61"/>
     </row>
   </sheetData>
@@ -3571,7 +3635,7 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -3585,32 +3649,32 @@
     <col min="3" max="3" width="9.85546875" style="71" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" style="72" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="129" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="118" customWidth="1"/>
     <col min="7" max="7" width="18" style="74" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="136" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="138"/>
+      <c r="B1" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="134"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="B2" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3649,13 +3713,13 @@
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="130"/>
-      <c r="G4" s="131"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120"/>
       <c r="H4" s="19">
         <f t="shared" ref="H4:H54" si="0">E4-G4</f>
         <v>0</v>
@@ -3671,12 +3735,12 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" s="20">
         <v>3300</v>
       </c>
-      <c r="F5" s="122"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="21"/>
       <c r="H5" s="19">
         <f t="shared" si="0"/>
@@ -3692,12 +3756,12 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" s="20">
         <v>1441</v>
       </c>
-      <c r="F6" s="122">
+      <c r="F6" s="111">
         <v>44977</v>
       </c>
       <c r="G6" s="21">
@@ -3717,12 +3781,12 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="20">
         <v>1527</v>
       </c>
-      <c r="F7" s="122">
+      <c r="F7" s="111">
         <v>44965</v>
       </c>
       <c r="G7" s="21">
@@ -3742,12 +3806,12 @@
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="20">
         <v>30548</v>
       </c>
-      <c r="F8" s="122"/>
+      <c r="F8" s="111"/>
       <c r="G8" s="21"/>
       <c r="H8" s="25">
         <f t="shared" si="0"/>
@@ -3762,13 +3826,13 @@
         <v>638</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="119" t="s">
-        <v>34</v>
+      <c r="D9" s="108" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="20">
         <v>7684</v>
       </c>
-      <c r="F9" s="122"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="21"/>
       <c r="H9" s="19">
         <f t="shared" si="0"/>
@@ -3784,12 +3848,12 @@
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10" s="20">
         <v>7684</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="111">
         <v>44961</v>
       </c>
       <c r="G10" s="21">
@@ -3809,12 +3873,12 @@
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="20">
         <v>43098</v>
       </c>
-      <c r="F11" s="122">
+      <c r="F11" s="111">
         <v>44965</v>
       </c>
       <c r="G11" s="21">
@@ -3834,13 +3898,13 @@
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" s="20">
         <v>22007</v>
       </c>
-      <c r="F12" s="122" t="s">
-        <v>38</v>
+      <c r="F12" s="111" t="s">
+        <v>34</v>
       </c>
       <c r="G12" s="21">
         <f>8600+10500+2907</f>
@@ -3860,12 +3924,12 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="20">
         <v>11465</v>
       </c>
-      <c r="F13" s="122"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="21"/>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
@@ -3881,12 +3945,12 @@
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E14" s="20">
         <v>8430</v>
       </c>
-      <c r="F14" s="122"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="21"/>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
@@ -3902,12 +3966,12 @@
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E15" s="20">
         <v>1116</v>
       </c>
-      <c r="F15" s="122">
+      <c r="F15" s="111">
         <v>44972</v>
       </c>
       <c r="G15" s="21">
@@ -3927,12 +3991,12 @@
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E16" s="20">
         <v>22753</v>
       </c>
-      <c r="F16" s="122"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="21"/>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
@@ -3948,12 +4012,12 @@
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E17" s="20">
         <v>8800</v>
       </c>
-      <c r="F17" s="122"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="21"/>
       <c r="H17" s="19">
         <f t="shared" si="0"/>
@@ -3969,13 +4033,13 @@
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18" s="20">
         <v>18422</v>
       </c>
-      <c r="F18" s="122" t="s">
-        <v>39</v>
+      <c r="F18" s="111" t="s">
+        <v>35</v>
       </c>
       <c r="G18" s="21">
         <f>10900+2400+5122</f>
@@ -3995,12 +4059,12 @@
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E19" s="20">
         <v>4400</v>
       </c>
-      <c r="F19" s="122"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="21"/>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
@@ -4016,12 +4080,12 @@
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E20" s="20">
         <v>1200</v>
       </c>
-      <c r="F20" s="122"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="21"/>
       <c r="H20" s="19">
         <f t="shared" si="0"/>
@@ -4037,12 +4101,12 @@
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E21" s="20">
         <v>715</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F21" s="111">
         <v>44979</v>
       </c>
       <c r="G21" s="21">
@@ -4061,13 +4125,13 @@
         <v>651</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="120" t="s">
-        <v>33</v>
+      <c r="D22" s="109" t="s">
+        <v>29</v>
       </c>
       <c r="E22" s="20">
         <v>0</v>
       </c>
-      <c r="F22" s="122"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="21"/>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
@@ -4083,12 +4147,12 @@
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E23" s="20">
         <v>14750</v>
       </c>
-      <c r="F23" s="122"/>
+      <c r="F23" s="111"/>
       <c r="G23" s="21"/>
       <c r="H23" s="19">
         <f t="shared" si="0"/>
@@ -4104,12 +4168,12 @@
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E24" s="20">
         <v>568</v>
       </c>
-      <c r="F24" s="122">
+      <c r="F24" s="111">
         <v>44974</v>
       </c>
       <c r="G24" s="21">
@@ -4129,12 +4193,12 @@
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E25" s="20">
         <v>7670</v>
       </c>
-      <c r="F25" s="122"/>
+      <c r="F25" s="111"/>
       <c r="G25" s="21"/>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
@@ -4150,12 +4214,12 @@
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E26" s="20">
         <v>1215</v>
       </c>
-      <c r="F26" s="122"/>
+      <c r="F26" s="111"/>
       <c r="G26" s="21"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
@@ -4171,12 +4235,12 @@
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E27" s="20">
         <v>2010</v>
       </c>
-      <c r="F27" s="122"/>
+      <c r="F27" s="111"/>
       <c r="G27" s="21"/>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
@@ -4191,16 +4255,16 @@
         <v>657</v>
       </c>
       <c r="C28" s="27"/>
-      <c r="D28" s="119" t="s">
-        <v>28</v>
+      <c r="D28" s="108" t="s">
+        <v>24</v>
       </c>
       <c r="E28" s="20">
         <v>450</v>
       </c>
-      <c r="F28" s="134">
+      <c r="F28" s="123">
         <v>44975</v>
       </c>
-      <c r="G28" s="135">
+      <c r="G28" s="124">
         <v>450</v>
       </c>
       <c r="H28" s="19">
@@ -4217,12 +4281,12 @@
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E29" s="20">
         <v>11950</v>
       </c>
-      <c r="F29" s="122"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="21"/>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
@@ -4238,13 +4302,13 @@
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E30" s="20">
         <v>17140</v>
       </c>
-      <c r="F30" s="122" t="s">
-        <v>40</v>
+      <c r="F30" s="111" t="s">
+        <v>36</v>
       </c>
       <c r="G30" s="21">
         <f>7000+10140</f>
@@ -4264,12 +4328,12 @@
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E31" s="20">
         <v>8016</v>
       </c>
-      <c r="F31" s="122"/>
+      <c r="F31" s="111"/>
       <c r="G31" s="21"/>
       <c r="H31" s="19">
         <f t="shared" si="0"/>
@@ -4285,12 +4349,12 @@
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E32" s="20">
         <v>1422</v>
       </c>
-      <c r="F32" s="122">
+      <c r="F32" s="111">
         <v>44986</v>
       </c>
       <c r="G32" s="21">
@@ -4310,12 +4374,12 @@
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E33" s="20">
         <v>3300</v>
       </c>
-      <c r="F33" s="122"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="21"/>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
@@ -4331,12 +4395,12 @@
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E34" s="20">
         <v>3300</v>
       </c>
-      <c r="F34" s="122"/>
+      <c r="F34" s="111"/>
       <c r="G34" s="21"/>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
@@ -4352,12 +4416,12 @@
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E35" s="20">
         <v>12119</v>
       </c>
-      <c r="F35" s="122"/>
+      <c r="F35" s="111"/>
       <c r="G35" s="21"/>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
@@ -4373,12 +4437,12 @@
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E36" s="20">
         <v>1856</v>
       </c>
-      <c r="F36" s="122">
+      <c r="F36" s="111">
         <v>44981</v>
       </c>
       <c r="G36" s="21">
@@ -4398,12 +4462,12 @@
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E37" s="20">
         <v>4950</v>
       </c>
-      <c r="F37" s="122"/>
+      <c r="F37" s="111"/>
       <c r="G37" s="21"/>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
@@ -4419,12 +4483,12 @@
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E38" s="20">
         <v>281</v>
       </c>
-      <c r="F38" s="122">
+      <c r="F38" s="111">
         <v>44982</v>
       </c>
       <c r="G38" s="21">
@@ -4444,12 +4508,12 @@
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E39" s="20">
         <v>420</v>
       </c>
-      <c r="F39" s="122"/>
+      <c r="F39" s="111"/>
       <c r="G39" s="21"/>
       <c r="H39" s="19">
         <f t="shared" si="0"/>
@@ -4465,13 +4529,13 @@
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E40" s="20">
         <v>25660</v>
       </c>
-      <c r="F40" s="122" t="s">
-        <v>41</v>
+      <c r="F40" s="111" t="s">
+        <v>37</v>
       </c>
       <c r="G40" s="21">
         <f>10100+8300+7260</f>
@@ -4491,12 +4555,12 @@
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E41" s="20">
         <v>3300</v>
       </c>
-      <c r="F41" s="122"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="21"/>
       <c r="H41" s="19">
         <f t="shared" si="0"/>
@@ -4512,12 +4576,12 @@
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E42" s="20">
         <v>16878</v>
       </c>
-      <c r="F42" s="122"/>
+      <c r="F42" s="111"/>
       <c r="G42" s="21"/>
       <c r="H42" s="19">
         <f t="shared" si="0"/>
@@ -4533,12 +4597,12 @@
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E43" s="20">
         <v>1046</v>
       </c>
-      <c r="F43" s="122"/>
+      <c r="F43" s="111"/>
       <c r="G43" s="21"/>
       <c r="H43" s="19">
         <f t="shared" si="0"/>
@@ -4554,12 +4618,12 @@
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E44" s="20">
         <v>20123</v>
       </c>
-      <c r="F44" s="122"/>
+      <c r="F44" s="111"/>
       <c r="G44" s="21"/>
       <c r="H44" s="19">
         <f t="shared" si="0"/>
@@ -4575,12 +4639,12 @@
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E45" s="20">
         <v>8180</v>
       </c>
-      <c r="F45" s="122"/>
+      <c r="F45" s="111"/>
       <c r="G45" s="21"/>
       <c r="H45" s="19">
         <f t="shared" si="0"/>
@@ -4596,12 +4660,12 @@
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E46" s="20">
         <v>10730</v>
       </c>
-      <c r="F46" s="122"/>
+      <c r="F46" s="111"/>
       <c r="G46" s="21"/>
       <c r="H46" s="19">
         <f t="shared" si="0"/>
@@ -4617,12 +4681,12 @@
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E47" s="20">
         <v>1552</v>
       </c>
-      <c r="F47" s="122">
+      <c r="F47" s="111">
         <v>44988</v>
       </c>
       <c r="G47" s="21">
@@ -4639,7 +4703,7 @@
       <c r="C48" s="27"/>
       <c r="D48" s="17"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="122"/>
+      <c r="F48" s="111"/>
       <c r="G48" s="21"/>
       <c r="H48" s="19">
         <f t="shared" si="0"/>
@@ -4652,7 +4716,7 @@
       <c r="C49" s="27"/>
       <c r="D49" s="17"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="122"/>
+      <c r="F49" s="111"/>
       <c r="G49" s="21"/>
       <c r="H49" s="19">
         <f t="shared" si="0"/>
@@ -4665,7 +4729,7 @@
       <c r="C50" s="27"/>
       <c r="D50" s="17"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="122"/>
+      <c r="F50" s="111"/>
       <c r="G50" s="21"/>
       <c r="H50" s="19">
         <f t="shared" si="0"/>
@@ -4678,7 +4742,7 @@
       <c r="C51" s="27"/>
       <c r="D51" s="17"/>
       <c r="E51" s="20"/>
-      <c r="F51" s="122"/>
+      <c r="F51" s="111"/>
       <c r="G51" s="21"/>
       <c r="H51" s="19">
         <f t="shared" si="0"/>
@@ -4691,7 +4755,7 @@
       <c r="C52" s="27"/>
       <c r="D52" s="17"/>
       <c r="E52" s="20"/>
-      <c r="F52" s="122"/>
+      <c r="F52" s="111"/>
       <c r="G52" s="21"/>
       <c r="H52" s="19">
         <f t="shared" si="0"/>
@@ -4704,7 +4768,7 @@
       <c r="C53" s="27"/>
       <c r="D53" s="17"/>
       <c r="E53" s="20"/>
-      <c r="F53" s="122"/>
+      <c r="F53" s="111"/>
       <c r="G53" s="21"/>
       <c r="H53" s="19">
         <f t="shared" si="0"/>
@@ -4719,7 +4783,7 @@
       <c r="E54" s="35">
         <v>0</v>
       </c>
-      <c r="F54" s="123"/>
+      <c r="F54" s="112"/>
       <c r="G54" s="36"/>
       <c r="H54" s="19">
         <f t="shared" si="0"/>
@@ -4735,7 +4799,7 @@
         <f>SUM(E4:E54)</f>
         <v>373476</v>
       </c>
-      <c r="F55" s="124"/>
+      <c r="F55" s="113"/>
       <c r="G55" s="40">
         <f>SUM(G4:G54)</f>
         <v>144939</v>
@@ -4751,7 +4815,7 @@
       <c r="C56" s="38"/>
       <c r="D56" s="39"/>
       <c r="E56" s="42"/>
-      <c r="F56" s="125"/>
+      <c r="F56" s="114"/>
       <c r="G56" s="43"/>
       <c r="H56" s="44"/>
       <c r="I56" s="2"/>
@@ -4763,7 +4827,7 @@
       <c r="E57" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="125"/>
+      <c r="F57" s="114"/>
       <c r="G57" s="46" t="s">
         <v>9</v>
       </c>
@@ -4775,7 +4839,7 @@
       <c r="C58" s="38"/>
       <c r="D58" s="39"/>
       <c r="E58" s="45"/>
-      <c r="F58" s="125"/>
+      <c r="F58" s="114"/>
       <c r="G58" s="46"/>
       <c r="H58" s="44"/>
       <c r="I58" s="2"/>
@@ -4784,12 +4848,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="140">
+      <c r="E59" s="136">
         <f>E55-G55</f>
         <v>228537</v>
       </c>
-      <c r="F59" s="141"/>
-      <c r="G59" s="142"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="138"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4797,7 +4861,7 @@
       <c r="C60" s="38"/>
       <c r="D60" s="39"/>
       <c r="E60" s="42"/>
-      <c r="F60" s="125"/>
+      <c r="F60" s="114"/>
       <c r="G60" s="43"/>
       <c r="I60" s="2"/>
     </row>
@@ -4805,11 +4869,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="143" t="s">
+      <c r="E61" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="143"/>
-      <c r="G61" s="143"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="139"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4817,7 +4881,7 @@
       <c r="C62" s="48"/>
       <c r="D62" s="49"/>
       <c r="E62" s="50"/>
-      <c r="F62" s="126"/>
+      <c r="F62" s="115"/>
       <c r="G62" s="51"/>
       <c r="I62" s="2"/>
     </row>
@@ -4838,7 +4902,7 @@
       <c r="C64" s="61"/>
       <c r="D64" s="62"/>
       <c r="E64" s="63"/>
-      <c r="F64" s="127"/>
+      <c r="F64" s="116"/>
       <c r="G64" s="64"/>
       <c r="H64" s="58"/>
       <c r="I64" s="2"/>
@@ -4849,7 +4913,7 @@
       <c r="C65" s="61"/>
       <c r="D65" s="62"/>
       <c r="E65" s="63"/>
-      <c r="F65" s="127"/>
+      <c r="F65" s="116"/>
       <c r="G65" s="64"/>
       <c r="H65" s="58"/>
       <c r="I65" s="2"/>
@@ -4860,7 +4924,7 @@
       <c r="C66" s="61"/>
       <c r="D66" s="62"/>
       <c r="E66" s="63"/>
-      <c r="F66" s="127"/>
+      <c r="F66" s="116"/>
       <c r="G66" s="64"/>
       <c r="H66" s="58"/>
       <c r="I66" s="2"/>
@@ -4871,7 +4935,7 @@
       <c r="C67" s="61"/>
       <c r="D67" s="62"/>
       <c r="E67" s="63"/>
-      <c r="F67" s="127"/>
+      <c r="F67" s="116"/>
       <c r="G67" s="64"/>
       <c r="H67" s="58"/>
       <c r="I67" s="2"/>
@@ -4882,7 +4946,7 @@
       <c r="C68" s="61"/>
       <c r="D68" s="62"/>
       <c r="E68" s="63"/>
-      <c r="F68" s="127"/>
+      <c r="F68" s="116"/>
       <c r="G68" s="64"/>
       <c r="H68" s="58"/>
       <c r="I68" s="2"/>
@@ -4893,7 +4957,7 @@
       <c r="C69" s="61"/>
       <c r="D69" s="62"/>
       <c r="E69" s="63"/>
-      <c r="F69" s="127"/>
+      <c r="F69" s="116"/>
       <c r="G69" s="64"/>
       <c r="H69" s="58"/>
       <c r="I69" s="2"/>
@@ -4904,7 +4968,7 @@
       <c r="C70" s="61"/>
       <c r="D70" s="62"/>
       <c r="E70" s="63"/>
-      <c r="F70" s="127"/>
+      <c r="F70" s="116"/>
       <c r="G70" s="64"/>
       <c r="H70" s="58"/>
       <c r="I70" s="2"/>
@@ -4915,7 +4979,7 @@
       <c r="C71" s="61"/>
       <c r="D71" s="62"/>
       <c r="E71" s="63"/>
-      <c r="F71" s="127"/>
+      <c r="F71" s="116"/>
       <c r="G71" s="64"/>
       <c r="H71" s="58"/>
       <c r="I71" s="2"/>
@@ -4926,7 +4990,7 @@
       <c r="C72" s="61"/>
       <c r="D72" s="62"/>
       <c r="E72" s="63"/>
-      <c r="F72" s="127"/>
+      <c r="F72" s="116"/>
       <c r="G72" s="64"/>
       <c r="H72" s="58"/>
       <c r="I72" s="2"/>
@@ -4937,7 +5001,7 @@
       <c r="C73" s="61"/>
       <c r="D73" s="62"/>
       <c r="E73" s="63"/>
-      <c r="F73" s="127"/>
+      <c r="F73" s="116"/>
       <c r="G73" s="64"/>
       <c r="H73" s="58"/>
     </row>
@@ -4947,7 +5011,7 @@
       <c r="C74" s="66"/>
       <c r="D74" s="67"/>
       <c r="E74" s="68"/>
-      <c r="F74" s="128"/>
+      <c r="F74" s="117"/>
       <c r="G74" s="69"/>
       <c r="H74" s="58"/>
     </row>
@@ -4966,12 +5030,67 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+    </row>
+    <row r="5" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="76"/>
+      <c r="C5" s="142"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="144"/>
+      <c r="C6" s="76"/>
+    </row>
+    <row r="7" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B7" s="144"/>
+      <c r="C7" s="143"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="144"/>
+      <c r="C8" s="76"/>
+    </row>
+    <row r="9" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="144"/>
+      <c r="C9" s="141"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
     <sheet name="PAGOS Zavaleta &amp; Obrador FEB-23" sheetId="3" r:id="rId2"/>
     <sheet name="FEBRERO    2 0 2 3" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="5" r:id="rId4"/>
-    <sheet name="Hoja5" sheetId="6" r:id="rId5"/>
+    <sheet name=" M A R Z O    2 0 2 3       " sheetId="5" r:id="rId4"/>
+    <sheet name="PAGOS Zavaleta &amp; Obrador  MARZO" sheetId="6" r:id="rId5"/>
     <sheet name="Hoja6" sheetId="7" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId7"/>
+    <sheet name="Hoja2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -179,6 +181,9 @@
   <si>
     <t>27-Feb-23--1-Mar-23--2-Mar-23</t>
   </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS    DE   MARZO         2 0 2 3</t>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +195,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,30 +421,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF00FF"/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +492,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1026,41 +1021,6 @@
     <xf numFmtId="164" fontId="19" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,6 +1037,40 @@
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1086,11 +1080,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFCC6600"/>
+      <color rgb="FFFF9900"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1364,6 +1362,169 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E055DA59-7FBF-4D29-B4AB-401C9645664F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4805365" y="13358815"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A450A5-FF34-4FFA-923D-F99626F430F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5700714" y="13406442"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5" descr="C:\Users\ROUSS\Pictures\2023-03-23 ESCANEO\WhatsApp Image 2023-03-24 at 10.25.06 AM.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10687049" y="142874"/>
+          <a:ext cx="7953375" cy="8543925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1658,25 +1819,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="146"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
+      <c r="B2" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2423,12 +2584,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="136">
+      <c r="E37" s="148">
         <f>E33-G33</f>
         <v>126865</v>
       </c>
-      <c r="F37" s="137"/>
-      <c r="G37" s="138"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="150"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2444,11 +2605,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="139" t="s">
+      <c r="E39" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2610,8 +2771,11 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I32:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2627,17 +2791,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -3563,59 +3727,59 @@
       <c r="F53"/>
     </row>
     <row r="54" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B54" s="145"/>
-      <c r="C54" s="146"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="145"/>
+      <c r="B54" s="132"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="132"/>
       <c r="F54"/>
     </row>
     <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="145"/>
-      <c r="C55" s="146"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="145"/>
+      <c r="B55" s="132"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
       <c r="F55"/>
     </row>
     <row r="56" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="148"/>
-      <c r="C56" s="153"/>
-      <c r="D56" s="154"/>
-      <c r="E56" s="145"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="132"/>
       <c r="F56"/>
     </row>
     <row r="57" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="148"/>
-      <c r="C57" s="155"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="145"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="132"/>
       <c r="F57"/>
     </row>
     <row r="58" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="148"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="145"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="132"/>
       <c r="F58"/>
     </row>
     <row r="59" spans="2:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B59" s="148"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="151"/>
-      <c r="E59" s="145"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="132"/>
       <c r="F59"/>
     </row>
     <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="152"/>
-      <c r="C60" s="146"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="145"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="152"/>
-      <c r="C61" s="146"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
       <c r="F61"/>
     </row>
   </sheetData>
@@ -3639,7 +3803,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3656,25 +3820,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="146"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
+      <c r="B2" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4848,12 +5012,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="136">
+      <c r="E59" s="148">
         <f>E55-G55</f>
         <v>228537</v>
       </c>
-      <c r="F59" s="137"/>
-      <c r="G59" s="138"/>
+      <c r="F59" s="149"/>
+      <c r="G59" s="150"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4869,11 +5033,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="139" t="s">
+      <c r="E61" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="139"/>
-      <c r="G61" s="139"/>
+      <c r="F61" s="151"/>
+      <c r="G61" s="151"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5030,80 +5194,1847 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
+  <sheetPr>
+    <tabColor rgb="FFFF9900"/>
+  </sheetPr>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F6"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="72" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="118" customWidth="1"/>
+    <col min="7" max="7" width="18" style="74" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-    </row>
-    <row r="5" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="76"/>
-      <c r="C5" s="142"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="144"/>
-      <c r="C6" s="76"/>
-    </row>
-    <row r="7" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="144"/>
-      <c r="C7" s="143"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="144"/>
-      <c r="C8" s="76"/>
-    </row>
-    <row r="9" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="144"/>
-      <c r="C9" s="141"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="146"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15">
+        <v>677</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="19">
+        <f t="shared" ref="H4:H54" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15">
+        <v>678</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15">
+        <v>679</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="15">
+        <v>680</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
+        <v>681</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15">
+        <v>682</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15">
+        <v>683</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15">
+        <v>684</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15">
+        <v>685</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
+        <v>686</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
+        <v>687</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
+        <v>688</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
+        <v>689</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
+        <v>690</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15">
+        <v>691</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
+        <v>692</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
+        <v>693</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15">
+        <v>694</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15">
+        <v>695</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15">
+        <v>696</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15">
+        <v>697</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="15">
+        <v>698</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="15">
+        <v>699</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="15">
+        <v>700</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="15">
+        <v>701</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="15">
+        <v>702</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="15">
+        <v>703</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="15">
+        <v>704</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="15">
+        <v>705</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="15">
+        <v>706</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="15">
+        <v>707</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="15">
+        <v>708</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="15">
+        <v>709</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="15">
+        <v>710</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="15">
+        <v>711</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="15">
+        <v>712</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="15">
+        <v>713</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="15">
+        <v>714</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="15">
+        <v>715</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="15">
+        <v>716</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="15">
+        <v>717</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="15">
+        <v>718</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="15">
+        <v>719</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="15">
+        <v>720</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="15">
+        <v>721</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="15">
+        <v>722</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="15">
+        <v>723</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="15">
+        <v>724</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="15">
+        <v>725</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="15">
+        <v>726</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35">
+        <v>0</v>
+      </c>
+      <c r="F54" s="112"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="40">
+        <f>SUM(E4:E54)</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="113"/>
+      <c r="G55" s="40">
+        <f>SUM(G4:G54)</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="41">
+        <f>SUM(H23:H54)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="114"/>
+      <c r="G57" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="44"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="148">
+        <f>E55-G55</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="149"/>
+      <c r="G59" s="150"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="43"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="151"/>
+      <c r="G61" s="151"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="51"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="59"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="59"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="59"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="59"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="59"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="59"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="59"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="116"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="59"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="59"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="59"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="58"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="59"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="117"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="58"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E61:G61"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFCC99FF"/>
+  </sheetPr>
+  <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="14" style="76" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="76"/>
+    <col min="4" max="4" width="20" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="76" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="81" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="Z2" s="105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="86"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="20">
+        <f>E47+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="20">
+        <f>E4+D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="20">
+        <f>J4+I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:E47" si="0">E5+D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="89"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="20">
+        <f t="shared" ref="J6:J29" si="1">J5+I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="89"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="82"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="82"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="82"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="82"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="82"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="82"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="82"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="82"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="82"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="82"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="82"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="82"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="91"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="82"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="97"/>
+      <c r="G28" s="155">
+        <v>45009</v>
+      </c>
+      <c r="H28" s="153" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="154">
+        <v>-2407225.2999999998</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" si="1"/>
+        <v>-2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="91"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="20">
+        <f t="shared" si="1"/>
+        <v>-2407225.2999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="100"/>
+    </row>
+    <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="100"/>
+    </row>
+    <row r="32" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="82"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="82"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="82"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="82"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="82"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="82"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="82"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="82"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="82"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="82"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="82"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="82"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="126"/>
+      <c r="J43" s="125"/>
+    </row>
+    <row r="44" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="82"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="126"/>
+      <c r="J44" s="125"/>
+    </row>
+    <row r="45" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="82"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="126"/>
+      <c r="J45" s="125"/>
+    </row>
+    <row r="46" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="82"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="125"/>
+    </row>
+    <row r="47" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="82"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="125"/>
+    </row>
+    <row r="48" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="81"/>
+      <c r="D48"/>
+      <c r="E48" s="104"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C49" s="81"/>
+      <c r="D49"/>
+      <c r="E49" s="104"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C50" s="81"/>
+      <c r="D50"/>
+      <c r="E50" s="104"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C51" s="81"/>
+      <c r="D51"/>
+      <c r="E51" s="104"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C52" s="81"/>
+      <c r="D52"/>
+      <c r="E52" s="104"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C53" s="81"/>
+      <c r="D53"/>
+      <c r="E53" s="104"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B54" s="132"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="132"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="132"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="135"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="132"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="135"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="132"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="135"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="132"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="2:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="135"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="132"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="139"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="139"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5117,4 +7048,28 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="40">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -184,6 +184,9 @@
   <si>
     <t>REMISIONES    POR     CREDITOS    DE   MARZO         2 0 2 3</t>
   </si>
+  <si>
+    <t>PAGADO OK</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +198,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +430,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -502,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -745,12 +756,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1037,39 +1099,57 @@
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="23" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1819,25 +1899,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="146"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="149"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2584,12 +2664,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="148">
+      <c r="E37" s="151">
         <f>E33-G33</f>
         <v>126865</v>
       </c>
-      <c r="F37" s="149"/>
-      <c r="G37" s="150"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="153"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2605,11 +2685,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="151" t="s">
+      <c r="E39" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2772,10 +2852,10 @@
   <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I32:I33"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2791,17 +2871,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -2844,7 +2924,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -2866,7 +2946,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -2889,7 +2969,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -2912,7 +2992,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -2934,7 +3014,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -2956,7 +3036,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -2978,7 +3058,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -3000,7 +3080,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -3022,7 +3102,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -3044,7 +3124,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -3066,7 +3146,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -3088,7 +3168,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -3110,7 +3190,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -3128,11 +3208,13 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="84"/>
+      <c r="H17" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="157"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -3150,11 +3232,11 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="84"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="159"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -3172,11 +3254,11 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="84"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="159"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -3194,11 +3276,11 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="159"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -3216,11 +3298,11 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="88"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="159"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -3238,11 +3320,11 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="88"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="159"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -3260,11 +3342,11 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="88"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="159"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -3282,11 +3364,11 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="159"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -3304,11 +3386,11 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="93"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="159"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -3326,11 +3408,11 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="93"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="161"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3352,7 +3434,7 @@
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -3381,7 +3463,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-29221.080000000075</v>
+        <v>0.41999999992549419</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -3403,7 +3485,7 @@
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-29221.080000000075</v>
+        <v>0.41999999992549419</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -3679,12 +3761,18 @@
       <c r="J46" s="125"/>
     </row>
     <row r="47" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="82"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="84"/>
+      <c r="B47" s="82">
+        <v>45008</v>
+      </c>
+      <c r="C47" s="87">
+        <v>45010</v>
+      </c>
+      <c r="D47" s="84">
+        <v>29221.5</v>
+      </c>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>2000120.5</v>
+        <v>2029342</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -3783,8 +3871,9 @@
       <c r="F61"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="H17:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3803,7 +3892,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H52:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3820,25 +3909,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="146"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="149"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5012,12 +5101,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="148">
+      <c r="E59" s="151">
         <f>E55-G55</f>
         <v>228537</v>
       </c>
-      <c r="F59" s="149"/>
-      <c r="G59" s="150"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="153"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5033,11 +5122,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="151" t="s">
+      <c r="E61" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="151"/>
-      <c r="G61" s="151"/>
+      <c r="F61" s="154"/>
+      <c r="G61" s="154"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5217,25 +5306,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="146"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="149"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6089,12 +6178,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="148">
+      <c r="E59" s="151">
         <f>E55-G55</f>
         <v>0</v>
       </c>
-      <c r="F59" s="149"/>
-      <c r="G59" s="150"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="153"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -6110,11 +6199,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="151" t="s">
+      <c r="E61" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="151"/>
-      <c r="G61" s="151"/>
+      <c r="F61" s="154"/>
+      <c r="G61" s="154"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -6279,7 +6368,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6296,17 +6385,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -6330,12 +6419,18 @@
       <c r="J3" s="81"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
+      <c r="B4" s="82">
+        <v>45006</v>
+      </c>
+      <c r="C4" s="83">
+        <v>45010</v>
+      </c>
+      <c r="D4" s="84">
+        <v>36544</v>
+      </c>
       <c r="E4" s="85">
         <f>D4</f>
-        <v>0</v>
+        <v>36544</v>
       </c>
       <c r="F4" s="86"/>
       <c r="G4" s="82"/>
@@ -6343,32 +6438,44 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
+      <c r="B5" s="82">
+        <v>45007</v>
+      </c>
+      <c r="C5" s="83">
+        <v>45010</v>
+      </c>
+      <c r="D5" s="84">
+        <v>40915</v>
+      </c>
       <c r="E5" s="20">
         <f>E4+D5</f>
-        <v>0</v>
+        <v>77459</v>
       </c>
       <c r="G5" s="82"/>
       <c r="H5" s="87"/>
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
+      <c r="B6" s="82">
+        <v>45008</v>
+      </c>
+      <c r="C6" s="83">
+        <v>45010</v>
+      </c>
+      <c r="D6" s="84">
+        <v>4655.5</v>
+      </c>
       <c r="E6" s="20">
         <f t="shared" ref="E6:E47" si="0">E5+D6</f>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="F6" s="89"/>
       <c r="G6" s="82"/>
@@ -6376,7 +6483,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -6385,7 +6492,7 @@
       <c r="D7" s="84"/>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="F7" s="89"/>
       <c r="G7" s="82"/>
@@ -6393,7 +6500,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -6402,14 +6509,14 @@
       <c r="D8" s="84"/>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G8" s="82"/>
       <c r="H8" s="87"/>
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -6418,14 +6525,14 @@
       <c r="D9" s="84"/>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="90"/>
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -6434,14 +6541,14 @@
       <c r="D10" s="21"/>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G10" s="82"/>
       <c r="H10" s="90"/>
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -6450,14 +6557,14 @@
       <c r="D11" s="21"/>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G11" s="82"/>
       <c r="H11" s="90"/>
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -6466,14 +6573,14 @@
       <c r="D12" s="21"/>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G12" s="82"/>
       <c r="H12" s="90"/>
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -6482,14 +6589,14 @@
       <c r="D13" s="21"/>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G13" s="82"/>
       <c r="H13" s="90"/>
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -6498,14 +6605,14 @@
       <c r="D14" s="21"/>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G14" s="82"/>
       <c r="H14" s="90"/>
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -6514,14 +6621,14 @@
       <c r="D15" s="21"/>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G15" s="82"/>
       <c r="H15" s="90"/>
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -6530,14 +6637,14 @@
       <c r="D16" s="21"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="90"/>
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -6546,14 +6653,14 @@
       <c r="D17" s="21"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G17" s="82"/>
       <c r="H17" s="87"/>
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -6562,14 +6669,14 @@
       <c r="D18" s="21"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G18" s="82"/>
       <c r="H18" s="87"/>
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -6578,14 +6685,14 @@
       <c r="D19" s="21"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="87"/>
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -6594,14 +6701,14 @@
       <c r="D20" s="21"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="87"/>
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -6610,14 +6717,14 @@
       <c r="D21" s="21"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G21" s="82"/>
       <c r="H21" s="87"/>
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -6626,14 +6733,14 @@
       <c r="D22" s="21"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -6642,14 +6749,14 @@
       <c r="D23" s="21"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -6658,14 +6765,14 @@
       <c r="D24" s="21"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -6674,14 +6781,14 @@
       <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -6690,14 +6797,14 @@
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6706,14 +6813,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -6722,21 +6829,21 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="F28" s="97"/>
-      <c r="G28" s="155">
+      <c r="G28" s="146">
         <v>45009</v>
       </c>
-      <c r="H28" s="153" t="s">
+      <c r="H28" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="154">
+      <c r="I28" s="145">
         <v>-2407225.2999999998</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-2407225.2999999998</v>
+        <v>-2325110.7999999998</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -6745,14 +6852,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-2407225.2999999998</v>
+        <v>-2325110.7999999998</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -6761,7 +6868,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -6774,7 +6881,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -6787,7 +6894,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6796,7 +6903,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6805,7 +6912,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6814,7 +6921,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6823,7 +6930,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6832,7 +6939,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6841,7 +6948,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6850,7 +6957,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6859,7 +6966,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6868,7 +6975,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6877,7 +6984,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -6886,7 +6993,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -6897,7 +7004,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -6908,7 +7015,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -6919,7 +7026,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -6931,7 +7038,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82114.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -6368,7 +6368,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6438,7 +6438,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -6460,7 +6460,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -6483,16 +6483,22 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
+      <c r="B7" s="82">
+        <v>45009</v>
+      </c>
+      <c r="C7" s="83">
+        <v>45014</v>
+      </c>
+      <c r="D7" s="84">
+        <v>84336.5</v>
+      </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>166451</v>
       </c>
       <c r="F7" s="89"/>
       <c r="G7" s="82"/>
@@ -6500,55 +6506,73 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
+      <c r="B8" s="82">
+        <v>45010</v>
+      </c>
+      <c r="C8" s="83">
+        <v>45014</v>
+      </c>
+      <c r="D8" s="84">
+        <v>28684.5</v>
+      </c>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>195135.5</v>
       </c>
       <c r="G8" s="82"/>
       <c r="H8" s="87"/>
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
+      <c r="B9" s="82">
+        <v>45011</v>
+      </c>
+      <c r="C9" s="83">
+        <v>45014</v>
+      </c>
+      <c r="D9" s="84">
+        <v>58608</v>
+      </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>253743.5</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="90"/>
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="91">
+        <v>45012</v>
+      </c>
+      <c r="C10" s="92">
+        <v>45014</v>
+      </c>
+      <c r="D10" s="21">
+        <v>24101.5</v>
+      </c>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G10" s="82"/>
       <c r="H10" s="90"/>
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -6557,14 +6581,14 @@
       <c r="D11" s="21"/>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G11" s="82"/>
       <c r="H11" s="90"/>
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -6573,14 +6597,14 @@
       <c r="D12" s="21"/>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G12" s="82"/>
       <c r="H12" s="90"/>
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -6589,14 +6613,14 @@
       <c r="D13" s="21"/>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G13" s="82"/>
       <c r="H13" s="90"/>
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -6605,14 +6629,14 @@
       <c r="D14" s="21"/>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G14" s="82"/>
       <c r="H14" s="90"/>
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -6621,14 +6645,14 @@
       <c r="D15" s="21"/>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G15" s="82"/>
       <c r="H15" s="90"/>
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -6637,14 +6661,14 @@
       <c r="D16" s="21"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="90"/>
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -6653,14 +6677,14 @@
       <c r="D17" s="21"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G17" s="82"/>
       <c r="H17" s="87"/>
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -6669,14 +6693,14 @@
       <c r="D18" s="21"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G18" s="82"/>
       <c r="H18" s="87"/>
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -6685,14 +6709,14 @@
       <c r="D19" s="21"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="87"/>
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -6701,14 +6725,14 @@
       <c r="D20" s="21"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="87"/>
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -6717,14 +6741,14 @@
       <c r="D21" s="21"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G21" s="82"/>
       <c r="H21" s="87"/>
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -6733,14 +6757,14 @@
       <c r="D22" s="21"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -6749,14 +6773,14 @@
       <c r="D23" s="21"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -6765,14 +6789,14 @@
       <c r="D24" s="21"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -6781,14 +6805,14 @@
       <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -6797,14 +6821,14 @@
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6813,14 +6837,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -6829,7 +6853,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="146">
@@ -6843,7 +6867,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-2325110.7999999998</v>
+        <v>-2129380.2999999998</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -6852,14 +6876,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-2325110.7999999998</v>
+        <v>-2129380.2999999998</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -6868,7 +6892,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -6881,7 +6905,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -6894,7 +6918,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6903,7 +6927,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6912,7 +6936,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6921,7 +6945,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6930,7 +6954,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6939,7 +6963,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6948,7 +6972,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6957,7 +6981,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6966,7 +6990,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6975,7 +6999,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6984,7 +7008,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -6993,7 +7017,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -7004,7 +7028,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -7015,7 +7039,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -7026,7 +7050,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -7038,7 +7062,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>82114.5</v>
+        <v>277845</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>PAGADO OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMA LEDO (  CENTRAL ) </t>
+  </si>
+  <si>
+    <t>GRACIELA LEDO PARRA</t>
+  </si>
+  <si>
+    <t>ABASTOS 11 SUR</t>
   </si>
 </sst>
 </file>
@@ -1879,10 +1888,10 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2234,11 +2243,15 @@
       <c r="E15" s="20">
         <v>250</v>
       </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="122"/>
+      <c r="F15" s="121">
+        <v>44989</v>
+      </c>
+      <c r="G15" s="122">
+        <v>250</v>
+      </c>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2618,7 +2631,7 @@
       <c r="F33" s="113"/>
       <c r="G33" s="40">
         <f>SUM(G4:G32)</f>
-        <v>211817</v>
+        <v>212067</v>
       </c>
       <c r="H33" s="41">
         <f>SUM(H23:H32)</f>
@@ -2666,7 +2679,7 @@
       <c r="D37" s="39"/>
       <c r="E37" s="151">
         <f>E33-G33</f>
-        <v>126865</v>
+        <v>126615</v>
       </c>
       <c r="F37" s="152"/>
       <c r="G37" s="153"/>
@@ -3889,10 +3902,10 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H52:H53"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5288,8 +5301,8 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5355,79 +5368,113 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="14">
+        <v>44989</v>
+      </c>
       <c r="B4" s="15">
         <v>677</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="18">
+        <v>63942</v>
+      </c>
       <c r="F4" s="119"/>
       <c r="G4" s="120"/>
       <c r="H4" s="19">
         <f t="shared" ref="H4:H54" si="0">E4-G4</f>
-        <v>0</v>
+        <v>63942</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14">
+        <v>44989</v>
+      </c>
       <c r="B5" s="15">
         <v>678</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="20">
+        <v>16765</v>
+      </c>
       <c r="F5" s="111"/>
       <c r="G5" s="21"/>
       <c r="H5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16765</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14">
+        <v>44989</v>
+      </c>
       <c r="B6" s="15">
         <v>679</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="20">
+        <v>8026</v>
+      </c>
       <c r="F6" s="111"/>
       <c r="G6" s="21"/>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8026</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="22">
+        <v>44989</v>
+      </c>
       <c r="B7" s="15">
         <v>680</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="20">
+        <v>4400</v>
+      </c>
+      <c r="F7" s="111">
+        <v>44989</v>
+      </c>
+      <c r="G7" s="21">
+        <v>400</v>
+      </c>
       <c r="H7" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14">
+        <v>44989</v>
+      </c>
       <c r="B8" s="15">
         <v>681</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="20">
+        <v>24980</v>
+      </c>
       <c r="F8" s="111"/>
       <c r="G8" s="21"/>
       <c r="H8" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24980</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -6127,12 +6174,12 @@
       <c r="D55" s="39"/>
       <c r="E55" s="40">
         <f>SUM(E4:E54)</f>
-        <v>0</v>
+        <v>118113</v>
       </c>
       <c r="F55" s="113"/>
       <c r="G55" s="40">
         <f>SUM(G4:G54)</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H55" s="41">
         <f>SUM(H23:H54)</f>
@@ -6180,7 +6227,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="151">
         <f>E55-G55</f>
-        <v>0</v>
+        <v>117713</v>
       </c>
       <c r="F59" s="152"/>
       <c r="G59" s="153"/>
@@ -6364,7 +6411,7 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="45">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>ABASTOS 11 SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISRAEL LEDO </t>
+  </si>
+  <si>
+    <t>6-Mar-23--9-Mar-23---</t>
   </si>
 </sst>
 </file>
@@ -2865,7 +2871,7 @@
   <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
@@ -3902,10 +3908,10 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4868,11 +4874,15 @@
       <c r="E43" s="20">
         <v>1046</v>
       </c>
-      <c r="F43" s="111"/>
-      <c r="G43" s="21"/>
+      <c r="F43" s="111">
+        <v>44993</v>
+      </c>
+      <c r="G43" s="21">
+        <v>1046</v>
+      </c>
       <c r="H43" s="19">
         <f t="shared" si="0"/>
-        <v>1046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5068,11 +5078,11 @@
       <c r="F55" s="113"/>
       <c r="G55" s="40">
         <f>SUM(G4:G54)</f>
-        <v>144939</v>
+        <v>145985</v>
       </c>
       <c r="H55" s="41">
         <f>SUM(H23:H54)</f>
-        <v>129957</v>
+        <v>128911</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -5116,7 +5126,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="151">
         <f>E55-G55</f>
-        <v>228537</v>
+        <v>227491</v>
       </c>
       <c r="F59" s="152"/>
       <c r="G59" s="153"/>
@@ -5302,7 +5312,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5424,11 +5434,15 @@
       <c r="E6" s="20">
         <v>8026</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="111">
+        <v>44993</v>
+      </c>
+      <c r="G6" s="21">
+        <v>8026</v>
+      </c>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>8026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5477,94 +5491,143 @@
         <v>24980</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:9" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>44990</v>
+      </c>
       <c r="B9" s="15">
         <v>682</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="21"/>
+      <c r="D9" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="20">
+        <v>23149</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="21">
+        <f>6750+4000</f>
+        <v>10750</v>
+      </c>
       <c r="H9" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12399</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>44991</v>
+      </c>
       <c r="B10" s="15">
         <v>683</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="20">
+        <v>654</v>
+      </c>
+      <c r="F10" s="111">
+        <v>44992</v>
+      </c>
+      <c r="G10" s="21">
+        <v>654</v>
+      </c>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14">
+        <v>44991</v>
+      </c>
       <c r="B11" s="15">
         <v>684</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="21"/>
+      <c r="D11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1521</v>
+      </c>
+      <c r="F11" s="111">
+        <v>44991</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1521</v>
+      </c>
       <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14">
+        <v>44991</v>
+      </c>
       <c r="B12" s="15">
         <v>685</v>
       </c>
       <c r="C12" s="27"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="20">
+        <v>11650</v>
+      </c>
       <c r="F12" s="111"/>
       <c r="G12" s="21"/>
       <c r="H12" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11650</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>44993</v>
+      </c>
       <c r="B13" s="15">
         <v>686</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1106</v>
+      </c>
       <c r="F13" s="111"/>
       <c r="G13" s="21"/>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>44994</v>
+      </c>
       <c r="B14" s="15">
         <v>687</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="20">
+        <v>4950</v>
+      </c>
       <c r="F14" s="111"/>
       <c r="G14" s="21"/>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -6174,12 +6237,12 @@
       <c r="D55" s="39"/>
       <c r="E55" s="40">
         <f>SUM(E4:E54)</f>
-        <v>118113</v>
+        <v>161143</v>
       </c>
       <c r="F55" s="113"/>
       <c r="G55" s="40">
         <f>SUM(G4:G54)</f>
-        <v>400</v>
+        <v>21351</v>
       </c>
       <c r="H55" s="41">
         <f>SUM(H23:H54)</f>
@@ -6227,7 +6290,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="151">
         <f>E55-G55</f>
-        <v>117713</v>
+        <v>139792</v>
       </c>
       <c r="F59" s="152"/>
       <c r="G59" s="153"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="46">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -200,7 +200,10 @@
     <t xml:space="preserve">ISRAEL LEDO </t>
   </si>
   <si>
-    <t>6-Mar-23--9-Mar-23---</t>
+    <t>HERRADURA   4 CARNES</t>
+  </si>
+  <si>
+    <t>6-Mar-23--9-Mar-23--13-Mar-23</t>
   </si>
 </sst>
 </file>
@@ -5312,7 +5315,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5491,7 +5494,7 @@
         <v>24980</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="48" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>44990</v>
       </c>
@@ -5506,15 +5509,15 @@
         <v>23149</v>
       </c>
       <c r="F9" s="111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="21">
-        <f>6750+4000</f>
-        <v>10750</v>
+        <f>6750+4000+8800+3599</f>
+        <v>23149</v>
       </c>
       <c r="H9" s="19">
         <f t="shared" si="0"/>
-        <v>12399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5631,93 +5634,137 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14">
+        <v>44995</v>
+      </c>
       <c r="B15" s="15">
         <v>688</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="20">
+        <v>4950</v>
+      </c>
       <c r="F15" s="111"/>
       <c r="G15" s="21"/>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="14">
+        <v>44996</v>
+      </c>
       <c r="B16" s="15">
         <v>689</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="20">
+        <v>11440</v>
+      </c>
       <c r="F16" s="111"/>
       <c r="G16" s="21"/>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11440</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>44996</v>
+      </c>
       <c r="B17" s="15">
         <v>690</v>
       </c>
       <c r="C17" s="28"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="20">
+        <v>1701</v>
+      </c>
+      <c r="F17" s="111">
+        <v>44996</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1701</v>
+      </c>
       <c r="H17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>44998</v>
+      </c>
       <c r="B18" s="15">
         <v>691</v>
       </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="20">
+        <v>624</v>
+      </c>
+      <c r="F18" s="111">
+        <v>44999</v>
+      </c>
+      <c r="G18" s="21">
+        <v>624</v>
+      </c>
       <c r="H18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>44998</v>
+      </c>
       <c r="B19" s="15">
         <v>692</v>
       </c>
       <c r="C19" s="28"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="20">
+        <v>29386</v>
+      </c>
       <c r="F19" s="111"/>
       <c r="G19" s="21"/>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29386</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>44999</v>
+      </c>
       <c r="B20" s="15">
         <v>693</v>
       </c>
       <c r="C20" s="27"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="20">
+        <v>6250</v>
+      </c>
       <c r="F20" s="111"/>
       <c r="G20" s="21"/>
       <c r="H20" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -6237,12 +6284,12 @@
       <c r="D55" s="39"/>
       <c r="E55" s="40">
         <f>SUM(E4:E54)</f>
-        <v>161143</v>
+        <v>215494</v>
       </c>
       <c r="F55" s="113"/>
       <c r="G55" s="40">
         <f>SUM(G4:G54)</f>
-        <v>21351</v>
+        <v>36075</v>
       </c>
       <c r="H55" s="41">
         <f>SUM(H23:H54)</f>
@@ -6290,7 +6337,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="151">
         <f>E55-G55</f>
-        <v>139792</v>
+        <v>179419</v>
       </c>
       <c r="F59" s="152"/>
       <c r="G59" s="153"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -5314,7 +5314,7 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -6521,11 +6521,11 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6595,7 +6595,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -6617,7 +6617,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -6640,7 +6640,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -6663,7 +6663,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -6685,7 +6685,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -6707,7 +6707,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -6729,87 +6729,117 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="91">
+        <v>45013</v>
+      </c>
+      <c r="C11" s="92">
+        <v>45019</v>
+      </c>
+      <c r="D11" s="21">
+        <v>38138</v>
+      </c>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>315983</v>
       </c>
       <c r="G11" s="82"/>
       <c r="H11" s="90"/>
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="91">
+        <v>45014</v>
+      </c>
+      <c r="C12" s="92">
+        <v>45019</v>
+      </c>
+      <c r="D12" s="21">
+        <v>44992.5</v>
+      </c>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>360975.5</v>
       </c>
       <c r="G12" s="82"/>
       <c r="H12" s="90"/>
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="91">
+        <v>45015</v>
+      </c>
+      <c r="C13" s="92">
+        <v>45019</v>
+      </c>
+      <c r="D13" s="21">
+        <v>44728</v>
+      </c>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>405703.5</v>
       </c>
       <c r="G13" s="82"/>
       <c r="H13" s="90"/>
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="91">
+        <v>45016</v>
+      </c>
+      <c r="C14" s="92">
+        <v>45019</v>
+      </c>
+      <c r="D14" s="21">
+        <v>74951</v>
+      </c>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>480654.5</v>
       </c>
       <c r="G14" s="82"/>
       <c r="H14" s="90"/>
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="91">
+        <v>45017</v>
+      </c>
+      <c r="C15" s="92">
+        <v>45019</v>
+      </c>
+      <c r="D15" s="21">
+        <v>39041</v>
+      </c>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G15" s="82"/>
       <c r="H15" s="90"/>
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -6818,14 +6848,14 @@
       <c r="D16" s="21"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="90"/>
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -6834,14 +6864,14 @@
       <c r="D17" s="21"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G17" s="82"/>
       <c r="H17" s="87"/>
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -6850,14 +6880,14 @@
       <c r="D18" s="21"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G18" s="82"/>
       <c r="H18" s="87"/>
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -6866,14 +6896,14 @@
       <c r="D19" s="21"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="87"/>
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -6882,14 +6912,14 @@
       <c r="D20" s="21"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="87"/>
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -6898,14 +6928,14 @@
       <c r="D21" s="21"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G21" s="82"/>
       <c r="H21" s="87"/>
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -6914,14 +6944,14 @@
       <c r="D22" s="21"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -6930,14 +6960,14 @@
       <c r="D23" s="21"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -6946,14 +6976,14 @@
       <c r="D24" s="21"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -6962,14 +6992,14 @@
       <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -6978,14 +7008,14 @@
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6994,14 +7024,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -7010,7 +7040,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="146">
@@ -7024,7 +7054,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-2129380.2999999998</v>
+        <v>-1887529.7999999998</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -7033,14 +7063,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-2129380.2999999998</v>
+        <v>-1887529.7999999998</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -7049,7 +7079,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -7062,7 +7092,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -7075,7 +7105,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7084,7 +7114,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7093,7 +7123,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7102,7 +7132,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7111,7 +7141,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7120,7 +7150,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7129,7 +7159,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7138,7 +7168,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7147,7 +7177,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7156,7 +7186,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7165,7 +7195,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -7174,7 +7204,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -7185,7 +7215,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -7196,7 +7226,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -7207,7 +7237,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -7219,7 +7249,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>277845</v>
+        <v>519695.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -216,7 +216,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +452,13 @@
       <b/>
       <sz val="36"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -830,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1124,6 +1131,7 @@
     <xf numFmtId="15" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1917,25 +1925,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
+      <c r="B2" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2686,12 +2694,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="151">
+      <c r="E37" s="152">
         <f>E33-G33</f>
         <v>126615</v>
       </c>
-      <c r="F37" s="152"/>
-      <c r="G37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="154"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2707,11 +2715,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="154" t="s">
+      <c r="E39" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2893,17 +2901,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -3230,10 +3238,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="156" t="s">
+      <c r="H17" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="157"/>
+      <c r="I17" s="158"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3254,8 +3262,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="160"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3276,8 +3284,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="160"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3298,8 +3306,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3320,8 +3328,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="160"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3342,8 +3350,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="160"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3364,8 +3372,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="160"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3386,8 +3394,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="160"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3408,8 +3416,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="160"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3430,8 +3438,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="162"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3931,25 +3939,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
+      <c r="B2" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5127,12 +5135,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="151">
+      <c r="E59" s="152">
         <f>E55-G55</f>
         <v>227491</v>
       </c>
-      <c r="F59" s="152"/>
-      <c r="G59" s="153"/>
+      <c r="F59" s="153"/>
+      <c r="G59" s="154"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5148,11 +5156,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="154" t="s">
+      <c r="E61" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="154"/>
-      <c r="G61" s="154"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5314,8 +5322,8 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5332,25 +5340,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
+      <c r="B2" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5394,11 +5402,15 @@
       <c r="E4" s="18">
         <v>63942</v>
       </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
+      <c r="F4" s="119">
+        <v>45001</v>
+      </c>
+      <c r="G4" s="120">
+        <v>63942</v>
+      </c>
       <c r="H4" s="19">
         <f t="shared" ref="H4:H54" si="0">E4-G4</f>
-        <v>63942</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -5605,11 +5617,15 @@
       <c r="E13" s="20">
         <v>1106</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="111">
+        <v>45000</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1106</v>
+      </c>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>1106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5768,48 +5784,66 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14">
+        <v>45000</v>
+      </c>
       <c r="B21" s="15">
         <v>694</v>
       </c>
       <c r="C21" s="27"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="20">
+        <v>1101</v>
+      </c>
       <c r="F21" s="111"/>
       <c r="G21" s="21"/>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>45000</v>
+      </c>
       <c r="B22" s="15">
         <v>695</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="147" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="20">
+        <v>30436</v>
+      </c>
       <c r="F22" s="111"/>
       <c r="G22" s="21"/>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30436</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>45000</v>
+      </c>
       <c r="B23" s="15">
         <v>696</v>
       </c>
       <c r="C23" s="27"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="20">
+        <v>9530</v>
+      </c>
       <c r="F23" s="111"/>
       <c r="G23" s="21"/>
       <c r="H23" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9530</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6284,16 +6318,16 @@
       <c r="D55" s="39"/>
       <c r="E55" s="40">
         <f>SUM(E4:E54)</f>
-        <v>215494</v>
+        <v>256561</v>
       </c>
       <c r="F55" s="113"/>
       <c r="G55" s="40">
         <f>SUM(G4:G54)</f>
-        <v>36075</v>
+        <v>101123</v>
       </c>
       <c r="H55" s="41">
         <f>SUM(H23:H54)</f>
-        <v>0</v>
+        <v>9530</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -6335,12 +6369,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="151">
+      <c r="E59" s="152">
         <f>E55-G55</f>
-        <v>179419</v>
-      </c>
-      <c r="F59" s="152"/>
-      <c r="G59" s="153"/>
+        <v>155438</v>
+      </c>
+      <c r="F59" s="153"/>
+      <c r="G59" s="154"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -6356,11 +6390,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="154" t="s">
+      <c r="E61" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="154"/>
-      <c r="G61" s="154"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -6510,7 +6544,8 @@
     <mergeCell ref="E61:G61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6521,11 +6556,11 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6542,17 +6577,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -6595,7 +6630,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -6617,7 +6652,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -6640,7 +6675,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -6663,7 +6698,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -6685,7 +6720,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -6707,7 +6742,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -6729,7 +6764,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -6751,7 +6786,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -6773,7 +6808,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -6795,7 +6830,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -6817,7 +6852,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -6839,87 +6874,117 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="91">
+        <v>45018</v>
+      </c>
+      <c r="C16" s="92">
+        <v>45024</v>
+      </c>
+      <c r="D16" s="21">
+        <v>49126</v>
+      </c>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>568821.5</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="90"/>
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="91">
+        <v>45019</v>
+      </c>
+      <c r="C17" s="92">
+        <v>45024</v>
+      </c>
+      <c r="D17" s="21">
+        <v>35389</v>
+      </c>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>604210.5</v>
       </c>
       <c r="G17" s="82"/>
       <c r="H17" s="87"/>
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="91">
+        <v>45020</v>
+      </c>
+      <c r="C18" s="92">
+        <v>45024</v>
+      </c>
+      <c r="D18" s="21">
+        <v>61336</v>
+      </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>665546.5</v>
       </c>
       <c r="G18" s="82"/>
       <c r="H18" s="87"/>
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="91"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="91">
+        <v>45021</v>
+      </c>
+      <c r="C19" s="92">
+        <v>45024</v>
+      </c>
+      <c r="D19" s="21">
+        <v>51063</v>
+      </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>716609.5</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="87"/>
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="91">
+        <v>45022</v>
+      </c>
+      <c r="C20" s="92">
+        <v>45024</v>
+      </c>
+      <c r="D20" s="21">
+        <v>79606.5</v>
+      </c>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="87"/>
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -6928,14 +6993,14 @@
       <c r="D21" s="21"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="G21" s="82"/>
       <c r="H21" s="87"/>
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -6944,14 +7009,14 @@
       <c r="D22" s="21"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -6960,14 +7025,14 @@
       <c r="D23" s="21"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -6976,14 +7041,14 @@
       <c r="D24" s="21"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -6992,14 +7057,14 @@
       <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -7008,14 +7073,14 @@
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7024,14 +7089,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -7040,7 +7105,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="146">
@@ -7054,7 +7119,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-1887529.7999999998</v>
+        <v>-1611009.2999999998</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -7063,14 +7128,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-1887529.7999999998</v>
+        <v>-1611009.2999999998</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -7079,7 +7144,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -7092,7 +7157,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -7105,7 +7170,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7114,7 +7179,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7123,7 +7188,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7132,7 +7197,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7141,7 +7206,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7150,7 +7215,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7159,7 +7224,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7168,7 +7233,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7177,7 +7242,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7186,7 +7251,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7195,7 +7260,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -7204,7 +7269,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -7215,7 +7280,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -7226,7 +7291,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -7237,7 +7302,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -7249,7 +7314,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>519695.5</v>
+        <v>796216</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="47">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -205,6 +205,9 @@
   <si>
     <t>6-Mar-23--9-Mar-23--13-Mar-23</t>
   </si>
+  <si>
+    <t>18-Mar-23--22-Mar-23</t>
+  </si>
 </sst>
 </file>
 
@@ -216,7 +219,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +462,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -837,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1177,6 +1188,11 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1186,12 +1202,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFCC6600"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF00FFFF"/>
-      <color rgb="FFCC6600"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFFCCFF"/>
@@ -1905,10 +1921,10 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2486,11 +2502,15 @@
       <c r="E24" s="20">
         <v>9540</v>
       </c>
-      <c r="F24" s="121"/>
-      <c r="G24" s="122"/>
+      <c r="F24" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G24" s="122">
+        <v>9540</v>
+      </c>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
-        <v>9540</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2507,11 +2527,15 @@
       <c r="E25" s="20">
         <v>90643</v>
       </c>
-      <c r="F25" s="121"/>
-      <c r="G25" s="122"/>
+      <c r="F25" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G25" s="122">
+        <v>90643</v>
+      </c>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
-        <v>90643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2528,11 +2552,15 @@
       <c r="E26" s="20">
         <v>22032</v>
       </c>
-      <c r="F26" s="121"/>
-      <c r="G26" s="122"/>
+      <c r="F26" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G26" s="122">
+        <v>22032</v>
+      </c>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
-        <v>22032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2549,11 +2577,15 @@
       <c r="E27" s="20">
         <v>4400</v>
       </c>
-      <c r="F27" s="121"/>
-      <c r="G27" s="122"/>
+      <c r="F27" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G27" s="122">
+        <v>4400</v>
+      </c>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
-        <v>4400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="32.25" x14ac:dyDescent="0.3">
@@ -2648,11 +2680,11 @@
       <c r="F33" s="113"/>
       <c r="G33" s="40">
         <f>SUM(G4:G32)</f>
-        <v>212067</v>
+        <v>338682</v>
       </c>
       <c r="H33" s="41">
         <f>SUM(H23:H32)</f>
-        <v>126615</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -2696,7 +2728,7 @@
       <c r="D37" s="39"/>
       <c r="E37" s="152">
         <f>E33-G33</f>
-        <v>126615</v>
+        <v>0</v>
       </c>
       <c r="F37" s="153"/>
       <c r="G37" s="154"/>
@@ -3919,10 +3951,10 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3987,7 +4019,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>44956</v>
       </c>
@@ -3995,7 +4027,7 @@
         <v>633</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="163" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="18">
@@ -4023,11 +4055,15 @@
       <c r="E5" s="20">
         <v>3300</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G5" s="122">
+        <v>3300</v>
+      </c>
       <c r="H5" s="19">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4094,11 +4130,15 @@
       <c r="E8" s="20">
         <v>30548</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G8" s="122">
+        <v>30548</v>
+      </c>
       <c r="H8" s="25">
         <f t="shared" si="0"/>
-        <v>30548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -4115,11 +4155,15 @@
       <c r="E9" s="20">
         <v>7684</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G9" s="122">
+        <v>7684</v>
+      </c>
       <c r="H9" s="19">
         <f t="shared" si="0"/>
-        <v>7684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4212,11 +4256,15 @@
       <c r="E13" s="20">
         <v>11465</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G13" s="122">
+        <v>11465</v>
+      </c>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>11465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4233,11 +4281,15 @@
       <c r="E14" s="20">
         <v>8430</v>
       </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G14" s="122">
+        <v>8430</v>
+      </c>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>8430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4279,11 +4331,15 @@
       <c r="E16" s="20">
         <v>22753</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G16" s="122">
+        <v>22753</v>
+      </c>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
-        <v>22753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4300,11 +4356,15 @@
       <c r="E17" s="20">
         <v>8800</v>
       </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G17" s="122">
+        <v>8800</v>
+      </c>
       <c r="H17" s="19">
         <f t="shared" si="0"/>
-        <v>8800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -4347,11 +4407,15 @@
       <c r="E19" s="20">
         <v>4400</v>
       </c>
-      <c r="F19" s="111"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G19" s="122">
+        <v>4400</v>
+      </c>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
-        <v>4400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4368,11 +4432,15 @@
       <c r="E20" s="20">
         <v>1200</v>
       </c>
-      <c r="F20" s="111"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G20" s="122">
+        <v>1200</v>
+      </c>
       <c r="H20" s="19">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4435,11 +4503,15 @@
       <c r="E23" s="20">
         <v>14750</v>
       </c>
-      <c r="F23" s="111"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G23" s="122">
+        <v>14750</v>
+      </c>
       <c r="H23" s="19">
         <f t="shared" si="0"/>
-        <v>14750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4481,11 +4553,15 @@
       <c r="E25" s="20">
         <v>7670</v>
       </c>
-      <c r="F25" s="111"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G25" s="122">
+        <v>7670</v>
+      </c>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
-        <v>7670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4500,13 +4576,17 @@
         <v>30</v>
       </c>
       <c r="E26" s="20">
-        <v>1215</v>
-      </c>
-      <c r="F26" s="111"/>
-      <c r="G26" s="21"/>
+        <v>12150</v>
+      </c>
+      <c r="F26" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G26" s="122">
+        <v>12150</v>
+      </c>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
-        <v>1215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4523,11 +4603,15 @@
       <c r="E27" s="20">
         <v>2010</v>
       </c>
-      <c r="F27" s="111"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G27" s="122">
+        <v>2010</v>
+      </c>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
-        <v>2010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -4569,11 +4653,15 @@
       <c r="E29" s="20">
         <v>11950</v>
       </c>
-      <c r="F29" s="111"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G29" s="122">
+        <v>11950</v>
+      </c>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
-        <v>11950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -4616,11 +4704,15 @@
       <c r="E31" s="20">
         <v>8016</v>
       </c>
-      <c r="F31" s="111"/>
-      <c r="G31" s="21"/>
+      <c r="F31" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G31" s="122">
+        <v>8016</v>
+      </c>
       <c r="H31" s="19">
         <f t="shared" si="0"/>
-        <v>8016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4662,11 +4754,15 @@
       <c r="E33" s="20">
         <v>3300</v>
       </c>
-      <c r="F33" s="111"/>
-      <c r="G33" s="21"/>
+      <c r="F33" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G33" s="122">
+        <v>3300</v>
+      </c>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4683,11 +4779,15 @@
       <c r="E34" s="20">
         <v>3300</v>
       </c>
-      <c r="F34" s="111"/>
-      <c r="G34" s="21"/>
+      <c r="F34" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G34" s="122">
+        <v>3300</v>
+      </c>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4704,8 +4804,8 @@
       <c r="E35" s="20">
         <v>12119</v>
       </c>
-      <c r="F35" s="111"/>
-      <c r="G35" s="21"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="165"/>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
         <v>12119</v>
@@ -4750,11 +4850,15 @@
       <c r="E37" s="20">
         <v>4950</v>
       </c>
-      <c r="F37" s="111"/>
-      <c r="G37" s="21"/>
+      <c r="F37" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G37" s="122">
+        <v>4950</v>
+      </c>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -4796,11 +4900,15 @@
       <c r="E39" s="20">
         <v>420</v>
       </c>
-      <c r="F39" s="111"/>
-      <c r="G39" s="21"/>
+      <c r="F39" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G39" s="122">
+        <v>420</v>
+      </c>
       <c r="H39" s="19">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -4843,11 +4951,15 @@
       <c r="E41" s="20">
         <v>3300</v>
       </c>
-      <c r="F41" s="111"/>
-      <c r="G41" s="21"/>
+      <c r="F41" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G41" s="122">
+        <v>3300</v>
+      </c>
       <c r="H41" s="19">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4864,11 +4976,15 @@
       <c r="E42" s="20">
         <v>16878</v>
       </c>
-      <c r="F42" s="111"/>
-      <c r="G42" s="21"/>
+      <c r="F42" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G42" s="122">
+        <v>16878</v>
+      </c>
       <c r="H42" s="19">
         <f t="shared" si="0"/>
-        <v>16878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4910,11 +5026,15 @@
       <c r="E44" s="20">
         <v>20123</v>
       </c>
-      <c r="F44" s="111"/>
-      <c r="G44" s="21"/>
+      <c r="F44" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G44" s="122">
+        <v>20123</v>
+      </c>
       <c r="H44" s="19">
         <f t="shared" si="0"/>
-        <v>20123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4931,11 +5051,15 @@
       <c r="E45" s="20">
         <v>8180</v>
       </c>
-      <c r="F45" s="111"/>
-      <c r="G45" s="21"/>
+      <c r="F45" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G45" s="122">
+        <v>8180</v>
+      </c>
       <c r="H45" s="19">
         <f t="shared" si="0"/>
-        <v>8180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4952,11 +5076,15 @@
       <c r="E46" s="20">
         <v>10730</v>
       </c>
-      <c r="F46" s="111"/>
-      <c r="G46" s="21"/>
+      <c r="F46" s="121">
+        <v>45005</v>
+      </c>
+      <c r="G46" s="122">
+        <v>10730</v>
+      </c>
       <c r="H46" s="19">
         <f t="shared" si="0"/>
-        <v>10730</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5084,16 +5212,16 @@
       <c r="D55" s="39"/>
       <c r="E55" s="40">
         <f>SUM(E4:E54)</f>
-        <v>373476</v>
+        <v>384411</v>
       </c>
       <c r="F55" s="113"/>
       <c r="G55" s="40">
         <f>SUM(G4:G54)</f>
-        <v>145985</v>
+        <v>372292</v>
       </c>
       <c r="H55" s="41">
         <f>SUM(H23:H54)</f>
-        <v>128911</v>
+        <v>12119</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -5137,7 +5265,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="152">
         <f>E55-G55</f>
-        <v>227491</v>
+        <v>12119</v>
       </c>
       <c r="F59" s="153"/>
       <c r="G59" s="154"/>
@@ -5323,7 +5451,8 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D31"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5428,11 +5557,15 @@
       <c r="E5" s="20">
         <v>16765</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="111">
+        <v>45005</v>
+      </c>
+      <c r="G5" s="21">
+        <v>16765</v>
+      </c>
       <c r="H5" s="19">
         <f t="shared" si="0"/>
-        <v>16765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5478,11 +5611,11 @@
         <v>44989</v>
       </c>
       <c r="G7" s="21">
-        <v>400</v>
+        <v>4400</v>
       </c>
       <c r="H7" s="19">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5499,11 +5632,15 @@
       <c r="E8" s="20">
         <v>24980</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="111">
+        <v>45005</v>
+      </c>
+      <c r="G8" s="21">
+        <v>24980</v>
+      </c>
       <c r="H8" s="25">
         <f t="shared" si="0"/>
-        <v>24980</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="48" x14ac:dyDescent="0.3">
@@ -5596,11 +5733,15 @@
       <c r="E12" s="20">
         <v>11650</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="111">
+        <v>45005</v>
+      </c>
+      <c r="G12" s="21">
+        <v>11650</v>
+      </c>
       <c r="H12" s="19">
         <f t="shared" si="0"/>
-        <v>11650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5642,11 +5783,15 @@
       <c r="E14" s="20">
         <v>4950</v>
       </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="111">
+        <v>45005</v>
+      </c>
+      <c r="G14" s="21">
+        <v>4950</v>
+      </c>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5663,11 +5808,15 @@
       <c r="E15" s="20">
         <v>4950</v>
       </c>
-      <c r="F15" s="111"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="111">
+        <v>45005</v>
+      </c>
+      <c r="G15" s="21">
+        <v>4950</v>
+      </c>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5684,11 +5833,15 @@
       <c r="E16" s="20">
         <v>11440</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="111">
+        <v>45005</v>
+      </c>
+      <c r="G16" s="21">
+        <v>11440</v>
+      </c>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
-        <v>11440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5755,11 +5908,15 @@
       <c r="E19" s="20">
         <v>29386</v>
       </c>
-      <c r="F19" s="111"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="111">
+        <v>45005</v>
+      </c>
+      <c r="G19" s="21">
+        <v>29386</v>
+      </c>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
-        <v>29386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5776,11 +5933,15 @@
       <c r="E20" s="20">
         <v>6250</v>
       </c>
-      <c r="F20" s="111"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="111">
+        <v>45005</v>
+      </c>
+      <c r="G20" s="21">
+        <v>6250</v>
+      </c>
       <c r="H20" s="19">
         <f t="shared" si="0"/>
-        <v>6250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5797,14 +5958,18 @@
       <c r="E21" s="20">
         <v>1101</v>
       </c>
-      <c r="F21" s="111"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="111">
+        <v>45007</v>
+      </c>
+      <c r="G21" s="21">
+        <v>1101</v>
+      </c>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>45000</v>
       </c>
@@ -5818,11 +5983,16 @@
       <c r="E22" s="20">
         <v>30436</v>
       </c>
-      <c r="F22" s="111"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="21">
+        <f>9000+8000</f>
+        <v>17000</v>
+      </c>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
-        <v>30436</v>
+        <v>13436</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5839,116 +6009,166 @@
       <c r="E23" s="20">
         <v>9530</v>
       </c>
-      <c r="F23" s="111"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="111">
+        <v>45005</v>
+      </c>
+      <c r="G23" s="21">
+        <v>9530</v>
+      </c>
       <c r="H23" s="19">
         <f t="shared" si="0"/>
-        <v>9530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14">
+        <v>45002</v>
+      </c>
       <c r="B24" s="15">
         <v>697</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="20">
+        <v>7730</v>
+      </c>
       <c r="F24" s="111"/>
       <c r="G24" s="21"/>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="22">
+        <v>45003</v>
+      </c>
       <c r="B25" s="15">
         <v>698</v>
       </c>
       <c r="C25" s="27"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="20">
+        <v>5020</v>
+      </c>
       <c r="F25" s="111"/>
       <c r="G25" s="21"/>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="22">
+        <v>45005</v>
+      </c>
       <c r="B26" s="15">
         <v>699</v>
       </c>
       <c r="C26" s="27"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="20">
+        <v>21400</v>
+      </c>
       <c r="F26" s="111"/>
       <c r="G26" s="21"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="22">
+        <v>45005</v>
+      </c>
       <c r="B27" s="15">
         <v>700</v>
       </c>
       <c r="C27" s="27"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="21"/>
+      <c r="D27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="20">
+        <v>265</v>
+      </c>
+      <c r="F27" s="111">
+        <v>45005</v>
+      </c>
+      <c r="G27" s="21">
+        <v>265</v>
+      </c>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="22">
+        <v>45006</v>
+      </c>
       <c r="B28" s="15">
         <v>701</v>
       </c>
       <c r="C28" s="27"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="20">
+        <v>2610</v>
+      </c>
       <c r="F28" s="111"/>
       <c r="G28" s="21"/>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="22">
+        <v>45007</v>
+      </c>
       <c r="B29" s="15">
         <v>702</v>
       </c>
       <c r="C29" s="27"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="20">
+        <v>4950</v>
+      </c>
       <c r="F29" s="111"/>
       <c r="G29" s="21"/>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="22">
+        <v>45007</v>
+      </c>
       <c r="B30" s="15">
         <v>703</v>
       </c>
       <c r="C30" s="27"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1060</v>
+      </c>
       <c r="F30" s="111"/>
       <c r="G30" s="21"/>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -6318,16 +6538,16 @@
       <c r="D55" s="39"/>
       <c r="E55" s="40">
         <f>SUM(E4:E54)</f>
-        <v>256561</v>
+        <v>299596</v>
       </c>
       <c r="F55" s="113"/>
       <c r="G55" s="40">
         <f>SUM(G4:G54)</f>
-        <v>101123</v>
+        <v>243390</v>
       </c>
       <c r="H55" s="41">
         <f>SUM(H23:H54)</f>
-        <v>9530</v>
+        <v>42770</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -6371,7 +6591,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="152">
         <f>E55-G55</f>
-        <v>155438</v>
+        <v>56206</v>
       </c>
       <c r="F59" s="153"/>
       <c r="G59" s="154"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="49">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -206,7 +206,13 @@
     <t>6-Mar-23--9-Mar-23--13-Mar-23</t>
   </si>
   <si>
-    <t>18-Mar-23--22-Mar-23</t>
+    <t xml:space="preserve">Transferencia </t>
+  </si>
+  <si>
+    <t>18-Mar-23--22-Mar-23--24-Mar-23</t>
+  </si>
+  <si>
+    <t>25-Mar-23--29-Mar-23--</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +476,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -848,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1143,56 +1157,61 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1202,9 +1221,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFCC6600"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFF9900"/>
@@ -1941,25 +1960,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="150"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="153"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
+      <c r="B2" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2726,12 +2745,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="152">
+      <c r="E37" s="155">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="153"/>
-      <c r="G37" s="154"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="157"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2747,11 +2766,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="155" t="s">
+      <c r="E39" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="158"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2933,17 +2952,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -3270,10 +3289,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="157" t="s">
+      <c r="H17" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="158"/>
+      <c r="I17" s="161"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3294,8 +3313,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="160"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3316,8 +3335,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="160"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="163"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3338,8 +3357,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="160"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="163"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3360,8 +3379,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="160"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="163"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3382,8 +3401,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="160"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="163"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3404,8 +3423,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="160"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="163"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3426,8 +3445,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="160"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="163"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3448,8 +3467,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="160"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="163"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3470,8 +3489,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="162"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="165"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3971,25 +3990,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="150"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="153"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
+      <c r="B2" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4027,7 +4046,7 @@
         <v>633</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="163" t="s">
+      <c r="D4" s="148" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="18">
@@ -4804,8 +4823,8 @@
       <c r="E35" s="20">
         <v>12119</v>
       </c>
-      <c r="F35" s="164"/>
-      <c r="G35" s="165"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="150"/>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
         <v>12119</v>
@@ -5263,12 +5282,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="152">
+      <c r="E59" s="155">
         <f>E55-G55</f>
         <v>12119</v>
       </c>
-      <c r="F59" s="153"/>
-      <c r="G59" s="154"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="157"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5284,11 +5303,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="155" t="s">
+      <c r="E61" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
+      <c r="F61" s="158"/>
+      <c r="G61" s="158"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5451,8 +5470,8 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5469,25 +5488,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="150"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="153"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
+      <c r="B2" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5969,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>45000</v>
       </c>
@@ -5984,15 +6003,15 @@
         <v>30436</v>
       </c>
       <c r="F22" s="111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" s="21">
-        <f>9000+8000</f>
-        <v>17000</v>
+        <f>9000+8000+13436</f>
+        <v>30436</v>
       </c>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
-        <v>13436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6164,176 +6183,259 @@
       <c r="E30" s="20">
         <v>1060</v>
       </c>
-      <c r="F30" s="111"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="111">
+        <v>45014</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1060</v>
+      </c>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
-        <v>1060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="22">
+        <v>45008</v>
+      </c>
       <c r="B31" s="15">
         <v>704</v>
       </c>
       <c r="C31" s="27"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="21"/>
+      <c r="D31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="20">
+        <v>1695</v>
+      </c>
+      <c r="F31" s="111">
+        <v>45008</v>
+      </c>
+      <c r="G31" s="21">
+        <v>1695</v>
+      </c>
       <c r="H31" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>45009</v>
+      </c>
       <c r="B32" s="15">
         <v>705</v>
       </c>
       <c r="C32" s="27"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="21"/>
+      <c r="D32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="20">
+        <v>39043</v>
+      </c>
+      <c r="F32" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="21">
+        <f>9300+1500+7800</f>
+        <v>18600</v>
+      </c>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20443</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="22">
+        <v>45010</v>
+      </c>
       <c r="B33" s="15">
         <v>706</v>
       </c>
       <c r="C33" s="27"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="20">
+        <v>4950</v>
+      </c>
       <c r="F33" s="111"/>
       <c r="G33" s="21"/>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="22">
+        <v>45010</v>
+      </c>
       <c r="B34" s="15">
         <v>707</v>
       </c>
       <c r="C34" s="27"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="20">
+        <v>5170</v>
+      </c>
       <c r="F34" s="111"/>
       <c r="G34" s="21"/>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="22">
+        <v>45012</v>
+      </c>
       <c r="B35" s="15">
         <v>708</v>
       </c>
       <c r="C35" s="27"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="20">
+        <v>4400</v>
+      </c>
       <c r="F35" s="111"/>
       <c r="G35" s="21"/>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="22">
+        <v>45012</v>
+      </c>
       <c r="B36" s="15">
         <v>709</v>
       </c>
       <c r="C36" s="27"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="20">
+        <v>6680</v>
+      </c>
       <c r="F36" s="111"/>
       <c r="G36" s="21"/>
       <c r="H36" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="22">
+        <v>45013</v>
+      </c>
       <c r="B37" s="15">
         <v>710</v>
       </c>
       <c r="C37" s="27"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="21"/>
+      <c r="D37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="20">
+        <v>1258</v>
+      </c>
+      <c r="F37" s="111">
+        <v>45013</v>
+      </c>
+      <c r="G37" s="21">
+        <v>1258</v>
+      </c>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="22">
+        <v>45013</v>
+      </c>
       <c r="B38" s="15">
         <v>711</v>
       </c>
       <c r="C38" s="27"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="20"/>
+      <c r="D38" s="167" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="168">
+        <v>3260</v>
+      </c>
       <c r="F38" s="111"/>
       <c r="G38" s="21"/>
       <c r="H38" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="22">
+        <v>45013</v>
+      </c>
       <c r="B39" s="15">
         <v>712</v>
       </c>
       <c r="C39" s="27"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="20"/>
+      <c r="D39" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="20">
+        <v>715</v>
+      </c>
       <c r="F39" s="111"/>
       <c r="G39" s="21"/>
       <c r="H39" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="22">
+        <v>45014</v>
+      </c>
       <c r="B40" s="15">
         <v>713</v>
       </c>
       <c r="C40" s="27"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="20"/>
+      <c r="D40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="20">
+        <v>684</v>
+      </c>
       <c r="F40" s="111"/>
       <c r="G40" s="21"/>
       <c r="H40" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="22">
+        <v>45014</v>
+      </c>
       <c r="B41" s="15">
         <v>714</v>
       </c>
       <c r="C41" s="27"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="20"/>
+      <c r="D41" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="20">
+        <v>5520</v>
+      </c>
       <c r="F41" s="111"/>
       <c r="G41" s="21"/>
       <c r="H41" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6538,16 +6640,16 @@
       <c r="D55" s="39"/>
       <c r="E55" s="40">
         <f>SUM(E4:E54)</f>
-        <v>299596</v>
+        <v>372971</v>
       </c>
       <c r="F55" s="113"/>
       <c r="G55" s="40">
         <f>SUM(G4:G54)</f>
-        <v>243390</v>
+        <v>279439</v>
       </c>
       <c r="H55" s="41">
         <f>SUM(H23:H54)</f>
-        <v>42770</v>
+        <v>93532</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -6589,12 +6691,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="152">
+      <c r="E59" s="155">
         <f>E55-G55</f>
-        <v>56206</v>
-      </c>
-      <c r="F59" s="153"/>
-      <c r="G59" s="154"/>
+        <v>93532</v>
+      </c>
+      <c r="F59" s="156"/>
+      <c r="G59" s="157"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -6610,11 +6712,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="155" t="s">
+      <c r="E61" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
+      <c r="F61" s="158"/>
+      <c r="G61" s="158"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -6776,11 +6878,11 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6797,17 +6899,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -6850,7 +6952,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -6872,7 +6974,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -6895,7 +6997,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -6918,7 +7020,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -6940,7 +7042,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -6962,7 +7064,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -6984,7 +7086,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -7006,7 +7108,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -7028,7 +7130,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -7050,7 +7152,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -7072,7 +7174,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -7094,133 +7196,139 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="91">
-        <v>45018</v>
+      <c r="B16" s="166" t="s">
+        <v>46</v>
       </c>
       <c r="C16" s="92">
-        <v>45024</v>
+        <v>45020</v>
       </c>
       <c r="D16" s="21">
-        <v>49126</v>
+        <v>700000</v>
       </c>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>568821.5</v>
+        <v>1219695.5</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="90"/>
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="91">
-        <v>45019</v>
+        <v>45018</v>
       </c>
       <c r="C17" s="92">
         <v>45024</v>
       </c>
       <c r="D17" s="21">
-        <v>35389</v>
+        <v>49126</v>
       </c>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>604210.5</v>
+        <v>1268821.5</v>
       </c>
       <c r="G17" s="82"/>
       <c r="H17" s="87"/>
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="91">
-        <v>45020</v>
+        <v>45019</v>
       </c>
       <c r="C18" s="92">
         <v>45024</v>
       </c>
       <c r="D18" s="21">
-        <v>61336</v>
+        <v>35389</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>665546.5</v>
+        <v>1304210.5</v>
       </c>
       <c r="G18" s="82"/>
       <c r="H18" s="87"/>
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="91">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C19" s="92">
         <v>45024</v>
       </c>
       <c r="D19" s="21">
-        <v>51063</v>
+        <v>61336</v>
       </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>716609.5</v>
+        <v>1365546.5</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="87"/>
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="91">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C20" s="92">
         <v>45024</v>
       </c>
       <c r="D20" s="21">
-        <v>79606.5</v>
+        <v>51063</v>
       </c>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1416609.5</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="87"/>
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="91">
+        <v>45022</v>
+      </c>
+      <c r="C21" s="92">
+        <v>45024</v>
+      </c>
+      <c r="D21" s="21">
+        <v>79606.5</v>
+      </c>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="G21" s="82"/>
       <c r="H21" s="87"/>
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -7229,14 +7337,14 @@
       <c r="D22" s="21"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -7245,14 +7353,14 @@
       <c r="D23" s="21"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -7261,14 +7369,14 @@
       <c r="D24" s="21"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -7277,14 +7385,14 @@
       <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -7293,14 +7401,14 @@
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7309,14 +7417,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -7325,7 +7433,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="146">
@@ -7339,7 +7447,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-1611009.2999999998</v>
+        <v>-911009.29999999981</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -7348,14 +7456,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-1611009.2999999998</v>
+        <v>-911009.29999999981</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -7364,7 +7472,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -7377,7 +7485,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -7390,7 +7498,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7399,7 +7507,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7408,7 +7516,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7417,7 +7525,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7426,7 +7534,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7435,7 +7543,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7444,7 +7552,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7453,7 +7561,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7462,7 +7570,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7471,7 +7579,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7480,7 +7588,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -7489,7 +7597,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -7500,7 +7608,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -7511,7 +7619,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -7522,7 +7630,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -7534,7 +7642,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>796216</v>
+        <v>1496216</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -7637,7 +7745,8 @@
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -1162,6 +1162,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1207,11 +1212,6 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1960,25 +1960,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="153"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="156"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="B2" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2745,12 +2745,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="155">
+      <c r="E37" s="158">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="156"/>
-      <c r="G37" s="157"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="160"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2766,11 +2766,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="158" t="s">
+      <c r="E39" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2952,17 +2952,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -3289,10 +3289,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="160" t="s">
+      <c r="H17" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="161"/>
+      <c r="I17" s="164"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3313,8 +3313,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="163"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="166"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3335,8 +3335,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="163"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="166"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3357,8 +3357,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="163"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="166"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3379,8 +3379,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="163"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="166"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3401,8 +3401,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="163"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="166"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3423,8 +3423,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="163"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="166"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3445,8 +3445,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="163"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="166"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3467,8 +3467,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="163"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="166"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3489,8 +3489,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="165"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="168"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -3990,25 +3990,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="153"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="156"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="B2" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5282,12 +5282,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="155">
+      <c r="E59" s="158">
         <f>E55-G55</f>
         <v>12119</v>
       </c>
-      <c r="F59" s="156"/>
-      <c r="G59" s="157"/>
+      <c r="F59" s="159"/>
+      <c r="G59" s="160"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5303,11 +5303,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="158" t="s">
+      <c r="E61" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="158"/>
-      <c r="G61" s="158"/>
+      <c r="F61" s="161"/>
+      <c r="G61" s="161"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5469,7 +5469,7 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
@@ -5488,25 +5488,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="153"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="156"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="B2" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6362,10 +6362,10 @@
         <v>711</v>
       </c>
       <c r="C38" s="27"/>
-      <c r="D38" s="167" t="s">
+      <c r="D38" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="168">
+      <c r="E38" s="153">
         <v>3260</v>
       </c>
       <c r="F38" s="111"/>
@@ -6691,12 +6691,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="155">
+      <c r="E59" s="158">
         <f>E55-G55</f>
         <v>93532</v>
       </c>
-      <c r="F59" s="156"/>
-      <c r="G59" s="157"/>
+      <c r="F59" s="159"/>
+      <c r="G59" s="160"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -6712,11 +6712,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="158" t="s">
+      <c r="E61" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="158"/>
-      <c r="G61" s="158"/>
+      <c r="F61" s="161"/>
+      <c r="G61" s="161"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -6878,11 +6878,11 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6899,17 +6899,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -6952,7 +6952,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -6974,7 +6974,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -6997,7 +6997,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -7020,7 +7020,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -7042,7 +7042,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -7064,7 +7064,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -7086,7 +7086,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -7108,7 +7108,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -7130,7 +7130,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -7152,7 +7152,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -7174,7 +7174,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -7196,11 +7196,11 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="151" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="92">
@@ -7218,7 +7218,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -7240,7 +7240,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -7262,7 +7262,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -7306,7 +7306,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -7328,71 +7328,95 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="91">
+        <v>45023</v>
+      </c>
+      <c r="C22" s="92">
+        <v>45028</v>
+      </c>
+      <c r="D22" s="21">
+        <v>34594</v>
+      </c>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1530810</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="91">
+        <v>45024</v>
+      </c>
+      <c r="C23" s="92">
+        <v>45028</v>
+      </c>
+      <c r="D23" s="21">
+        <v>68104.5</v>
+      </c>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1598914.5</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="91">
+        <v>45025</v>
+      </c>
+      <c r="C24" s="92">
+        <v>45028</v>
+      </c>
+      <c r="D24" s="21">
+        <v>53155</v>
+      </c>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1652069.5</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="91">
+        <v>45026</v>
+      </c>
+      <c r="C25" s="92">
+        <v>45028</v>
+      </c>
+      <c r="D25" s="21">
+        <v>43679</v>
+      </c>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -7401,14 +7425,14 @@
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7417,14 +7441,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -7433,7 +7457,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="146">
@@ -7447,7 +7471,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-911009.29999999981</v>
+        <v>-711476.79999999981</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -7456,14 +7480,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-911009.29999999981</v>
+        <v>-711476.79999999981</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -7472,7 +7496,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -7485,7 +7509,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -7498,7 +7522,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7507,7 +7531,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7516,7 +7540,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7525,7 +7549,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7534,7 +7558,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7543,7 +7567,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7552,7 +7576,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7561,7 +7585,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7570,7 +7594,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7579,7 +7603,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7588,7 +7612,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -7597,7 +7621,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -7608,7 +7632,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -7619,7 +7643,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -7630,7 +7654,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -7642,7 +7666,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1496216</v>
+        <v>1695748.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS     ZAVALETA   MARZO     2023.xlsx
@@ -1631,8 +1631,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6882,7 +6882,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6952,7 +6952,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -6974,7 +6974,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -6997,7 +6997,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -7020,7 +7020,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -7042,7 +7042,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -7064,7 +7064,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -7086,7 +7086,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -7108,7 +7108,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -7130,7 +7130,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -7152,7 +7152,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -7174,7 +7174,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -7196,7 +7196,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -7218,7 +7218,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -7240,7 +7240,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -7262,7 +7262,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -7306,7 +7306,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -7328,7 +7328,7 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -7350,7 +7350,7 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -7394,7 +7394,7 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -7416,48 +7416,66 @@
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="21"/>
+        <v>1947361.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="91">
+        <v>45027</v>
+      </c>
+      <c r="C26" s="92">
+        <v>45033</v>
+      </c>
+      <c r="D26" s="21">
+        <v>32180</v>
+      </c>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1727928.5</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="21"/>
+        <v>1947361.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="91">
+        <v>45028</v>
+      </c>
+      <c r="C27" s="92">
+        <v>45033</v>
+      </c>
+      <c r="D27" s="21">
+        <v>36595</v>
+      </c>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1764523.5</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="91">
+        <v>45029</v>
+      </c>
+      <c r="C28" s="92">
+        <v>45033</v>
+      </c>
+      <c r="D28" s="21">
+        <v>59961</v>
+      </c>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1824484.5</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="146">
@@ -7471,32 +7489,44 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-711476.79999999981</v>
+        <v>-459863.79999999981</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="91">
+        <v>45030</v>
+      </c>
+      <c r="C29" s="92">
+        <v>45033</v>
+      </c>
+      <c r="D29" s="21">
+        <v>103001</v>
+      </c>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1927485.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-711476.79999999981</v>
+        <v>-459863.79999999981</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="91">
+        <v>45031</v>
+      </c>
+      <c r="C30" s="92">
+        <v>45033</v>
+      </c>
+      <c r="D30" s="21">
+        <v>19876</v>
+      </c>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -7509,7 +7539,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -7522,7 +7552,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7531,7 +7561,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7540,7 +7570,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7549,7 +7579,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7558,7 +7588,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7567,7 +7597,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7576,7 +7606,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7585,7 +7615,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7594,7 +7624,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7603,7 +7633,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7612,7 +7642,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -7621,7 +7651,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -7632,7 +7662,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -7643,7 +7673,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -7654,7 +7684,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -7666,7 +7696,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1695748.5</v>
+        <v>1947361.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
